--- a/waterqualitydata/2022_BayDelta_Compiled_WQ_Data.xlsx
+++ b/waterqualitydata/2022_BayDelta_Compiled_WQ_Data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/hplaas_ad_unc_edu/Documents/Coding/R/California/BayDeltaCyanos/BayDeltaCyanos/waterqualitydata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{F88CDEE4-5324-4A65-B8B3-B7C493924B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06212E87-0E17-45BD-ADB4-09A1677B009C}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="8_{F88CDEE4-5324-4A65-B8B3-B7C493924B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEA9CC76-11F1-4C16-B40E-F31B51CBBBAD}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{D71667AA-38F4-4C77-9C93-F04BB915FB89}"/>
+    <workbookView xWindow="39870" yWindow="2910" windowWidth="21600" windowHeight="12405" activeTab="2" xr2:uid="{D71667AA-38F4-4C77-9C93-F04BB915FB89}"/>
   </bookViews>
   <sheets>
-    <sheet name="Collated_Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Dictionary" sheetId="2" r:id="rId2"/>
+    <sheet name="Weekly_Averages" sheetId="3" r:id="rId1"/>
+    <sheet name="Collated_Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Data Dictionary" sheetId="2" r:id="rId3"/>
+    <sheet name="Raw SPATT data" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="210">
   <si>
     <t>DB</t>
   </si>
@@ -463,13 +465,220 @@
   </si>
   <si>
     <t>2MIB</t>
+  </si>
+  <si>
+    <t>mid_date</t>
+  </si>
+  <si>
+    <t>DB_avg_1</t>
+  </si>
+  <si>
+    <t>ST_avg_1</t>
+  </si>
+  <si>
+    <t>DB_avg_2</t>
+  </si>
+  <si>
+    <t>ST_avg_2</t>
+  </si>
+  <si>
+    <t>DB_avg_3</t>
+  </si>
+  <si>
+    <t>ST_avg_3</t>
+  </si>
+  <si>
+    <t>DB_avg_4</t>
+  </si>
+  <si>
+    <t>ST_avg_4</t>
+  </si>
+  <si>
+    <t>DB_avg_5</t>
+  </si>
+  <si>
+    <t>ST_avg_5</t>
+  </si>
+  <si>
+    <t>DB_avg_6</t>
+  </si>
+  <si>
+    <t>ST_avg_6</t>
+  </si>
+  <si>
+    <t>DB_avg_7</t>
+  </si>
+  <si>
+    <t>ST_avg_7</t>
+  </si>
+  <si>
+    <t>DB_avg_8</t>
+  </si>
+  <si>
+    <t>ST_avg_8</t>
+  </si>
+  <si>
+    <t>Other Cyanotoxins</t>
+  </si>
+  <si>
+    <t>CYL</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>HATX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reported in ng/mL (or ug/L) </t>
+  </si>
+  <si>
+    <t>anatoxin-a</t>
+  </si>
+  <si>
+    <t>homo-anatoxin-a</t>
+  </si>
+  <si>
+    <t>cylindrospermopsin</t>
+  </si>
+  <si>
+    <t>quantified by Kudela lab at UC Santa Cruz</t>
+  </si>
+  <si>
+    <t>quantified by Popendorf Lab at UC Santa Cruz</t>
+  </si>
+  <si>
+    <t>SPATT toxins</t>
+  </si>
+  <si>
+    <t>[RR]</t>
+  </si>
+  <si>
+    <t>[YR]</t>
+  </si>
+  <si>
+    <t>[LR</t>
+  </si>
+  <si>
+    <t>[LA]</t>
+  </si>
+  <si>
+    <t>[WR]</t>
+  </si>
+  <si>
+    <t>[LF]</t>
+  </si>
+  <si>
+    <t>[dmLR]</t>
+  </si>
+  <si>
+    <t>[LY]</t>
+  </si>
+  <si>
+    <t>[ATX]</t>
+  </si>
+  <si>
+    <t>[HATX]</t>
+  </si>
+  <si>
+    <t>[CYL]</t>
+  </si>
+  <si>
+    <t>Hayley.Stockton.0627</t>
+  </si>
+  <si>
+    <t>Hayley.Stockton.0705</t>
+  </si>
+  <si>
+    <t>Hayley.Stockton.0710</t>
+  </si>
+  <si>
+    <t>Hayley.Stockton.0726</t>
+  </si>
+  <si>
+    <t>Hayley.Stockton.0818</t>
+  </si>
+  <si>
+    <t>Hayley.Stockton.0830</t>
+  </si>
+  <si>
+    <t>Hayley.Stockton.0913</t>
+  </si>
+  <si>
+    <t>Hayley.DB.0625</t>
+  </si>
+  <si>
+    <t>Hayley.DB.0705</t>
+  </si>
+  <si>
+    <t>Hayley.DB.0719</t>
+  </si>
+  <si>
+    <t>Hayley.DB.0818</t>
+  </si>
+  <si>
+    <t>Hayley.DB.0830</t>
+  </si>
+  <si>
+    <t>Hayley.DB.0913</t>
+  </si>
+  <si>
+    <t>SPATT_MCRR</t>
+  </si>
+  <si>
+    <t>SPATT_MCYR</t>
+  </si>
+  <si>
+    <t>SPATT_MCLR</t>
+  </si>
+  <si>
+    <t>SPATT_MCLA</t>
+  </si>
+  <si>
+    <t>SPATT_MCWR</t>
+  </si>
+  <si>
+    <t>SPATT_MCLF</t>
+  </si>
+  <si>
+    <t>SPATT_MCdmLR</t>
+  </si>
+  <si>
+    <t>SPATT_MCLY</t>
+  </si>
+  <si>
+    <t>SPATT_ATX</t>
+  </si>
+  <si>
+    <t>SPATT_HATX</t>
+  </si>
+  <si>
+    <t>SPATT_CYL</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>3 g of resin per SPATT bag -- not actually weighed</t>
+  </si>
+  <si>
+    <t>reported in ng/g resin</t>
+  </si>
+  <si>
+    <t>overall less quantative, but can see trends</t>
+  </si>
+  <si>
+    <t>chlorophyll c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,16 +718,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -526,12 +773,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -552,6 +851,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,12 +1200,4134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4CB0F-E651-4141-9B12-96C2003917B8}">
+  <dimension ref="A1:BH33"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AX1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BA23" sqref="BA23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.06640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.06640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="11.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="49" width="9.06640625" style="5"/>
+    <col min="50" max="50" width="11.73046875" style="5" customWidth="1"/>
+    <col min="51" max="51" width="13.46484375" style="5" customWidth="1"/>
+    <col min="52" max="52" width="12.9296875" style="5" customWidth="1"/>
+    <col min="53" max="53" width="12.796875" style="5" customWidth="1"/>
+    <col min="54" max="54" width="12.9296875" style="5" customWidth="1"/>
+    <col min="55" max="55" width="11.73046875" style="5" customWidth="1"/>
+    <col min="56" max="56" width="11.86328125" style="5" customWidth="1"/>
+    <col min="57" max="57" width="12.6640625" style="5" customWidth="1"/>
+    <col min="58" max="58" width="13.33203125" style="5" customWidth="1"/>
+    <col min="59" max="59" width="15.19921875" style="5" customWidth="1"/>
+    <col min="60" max="16384" width="9.06640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A2" s="6">
+        <v>44743</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="10">
+        <f>AVERAGE(Collated_Data!D2:D4,Collated_Data!D8:D10)</f>
+        <v>583.33333333333337</v>
+      </c>
+      <c r="E2" s="10">
+        <f>AVERAGE(Collated_Data!E2:E4,Collated_Data!E8:E10)</f>
+        <v>3438</v>
+      </c>
+      <c r="F2" s="10">
+        <f>AVERAGE(Collated_Data!F2:F4,Collated_Data!F8:F10)</f>
+        <v>6.8508499924015949</v>
+      </c>
+      <c r="G2" s="9">
+        <f>AVERAGE(Collated_Data!G2:G4,Collated_Data!G8:G10)</f>
+        <v>0.15363047724890158</v>
+      </c>
+      <c r="H2" s="9">
+        <f>AVERAGE(Collated_Data!H2:H4,Collated_Data!H8:H10)</f>
+        <v>497609.66666666669</v>
+      </c>
+      <c r="I2" s="9">
+        <f>AVERAGE(Collated_Data!I2:I4,Collated_Data!I8:I10)</f>
+        <v>9.0200614518074443E-2</v>
+      </c>
+      <c r="J2" s="9">
+        <f>AVERAGE(Collated_Data!J2:J4,Collated_Data!J8:J10)</f>
+        <v>0.1635917860566681</v>
+      </c>
+      <c r="K2" s="9">
+        <f>AVERAGE(Collated_Data!K2:K4,Collated_Data!K8:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <f>AVERAGE(Collated_Data!L2:L4,Collated_Data!L8:L10)</f>
+        <v>7.4977937753619425E-2</v>
+      </c>
+      <c r="M2" s="9">
+        <f>AVERAGE(Collated_Data!M2:M4,Collated_Data!M8:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="9">
+        <f>AVERAGE(Collated_Data!N2:N4,Collated_Data!N8:N10)</f>
+        <v>8.8075256512845437E-2</v>
+      </c>
+      <c r="O2" s="9">
+        <f>AVERAGE(Collated_Data!O2:O4,Collated_Data!O8:O10)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="9">
+        <f>AVERAGE(Collated_Data!P2:P4,Collated_Data!P8:P10)</f>
+        <v>0.22881581949616833</v>
+      </c>
+      <c r="Q2" s="9">
+        <f>AVERAGE(Collated_Data!Q2:Q4,Collated_Data!Q8:Q10)</f>
+        <v>0.11249193141898518</v>
+      </c>
+      <c r="R2" s="9">
+        <f>AVERAGE(Collated_Data!R2:R4,Collated_Data!R8:R10)</f>
+        <v>2.0378054708048392</v>
+      </c>
+      <c r="S2" s="9">
+        <f>AVERAGE(Collated_Data!S2:S4,Collated_Data!S8:S10)</f>
+        <v>0.30943627277774971</v>
+      </c>
+      <c r="T2" s="9">
+        <f>AVERAGE(Collated_Data!T2:T4,Collated_Data!T8:T10)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="9">
+        <f>AVERAGE(Collated_Data!U2:U4,Collated_Data!U8:U10)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="9">
+        <f>AVERAGE(Collated_Data!V2:V4,Collated_Data!V8:V10)</f>
+        <v>0.12634665775401069</v>
+      </c>
+      <c r="W2" s="9">
+        <f>AVERAGE(Collated_Data!W2:W4,Collated_Data!W8:W10)</f>
+        <v>1.0062120848212877</v>
+      </c>
+      <c r="X2" s="9">
+        <f>AVERAGE(Collated_Data!X2:X4,Collated_Data!X8:X10)</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="9">
+        <f>AVERAGE(Collated_Data!Y2:Y4,Collated_Data!Y8:Y10)</f>
+        <v>0.91771551974403476</v>
+      </c>
+      <c r="Z2" s="9">
+        <f>AVERAGE(Collated_Data!Z2:Z4,Collated_Data!Z8:Z10)</f>
+        <v>23.504486903107065</v>
+      </c>
+      <c r="AA2" s="9">
+        <f>AVERAGE(Collated_Data!AA2:AA4,Collated_Data!AA8:AA10)</f>
+        <v>2.856842104346736</v>
+      </c>
+      <c r="AB2" s="9">
+        <f>AVERAGE(Collated_Data!AB2:AB4,Collated_Data!AB8:AB10)</f>
+        <v>23.658117380355971</v>
+      </c>
+      <c r="AC2" s="9">
+        <f>AVERAGE(Collated_Data!AC2:AC4,Collated_Data!AC8:AC10)</f>
+        <v>7.0701585113714674E-2</v>
+      </c>
+      <c r="AD2" s="9">
+        <f>AVERAGE(Collated_Data!AD2:AD4,Collated_Data!AD8:AD10)</f>
+        <v>1.1501949041318169</v>
+      </c>
+      <c r="AE2" s="10">
+        <f>AVERAGE(Collated_Data!AE2:AE4,Collated_Data!AE8:AE10)</f>
+        <v>10.980000000000002</v>
+      </c>
+      <c r="AF2" s="10">
+        <f>AVERAGE(Collated_Data!AF2:AF4,Collated_Data!AF8:AF10)</f>
+        <v>62.525000000000006</v>
+      </c>
+      <c r="AG2" s="10">
+        <f>AVERAGE(Collated_Data!AG2:AG4,Collated_Data!AG8:AG10)</f>
+        <v>66.308333333333351</v>
+      </c>
+      <c r="AH2" s="10">
+        <f>AVERAGE(Collated_Data!AH2:AH4,Collated_Data!AH8:AH10)</f>
+        <v>8420.9516666666659</v>
+      </c>
+      <c r="AI2" s="10">
+        <f>AVERAGE(Collated_Data!AI2:AI4,Collated_Data!AI8:AI10)</f>
+        <v>481.16666666666669</v>
+      </c>
+      <c r="AJ2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ2:AJ4,Collated_Data!AJ8:AJ10)</f>
+        <v>4.2406900950704571</v>
+      </c>
+      <c r="AK2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK2:AK4,Collated_Data!AK8:AK10)</f>
+        <v>0.50249617446007755</v>
+      </c>
+      <c r="AL2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL2:AL4,Collated_Data!AL8:AL10)</f>
+        <v>0.42785397673889475</v>
+      </c>
+      <c r="AM2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM2:AM4,Collated_Data!AM8:AM10)</f>
+        <v>0.63170899229688504</v>
+      </c>
+      <c r="AN2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN2:AN4,Collated_Data!AN8:AN10)</f>
+        <v>0.53453591958436752</v>
+      </c>
+      <c r="AO2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO2:AO4,Collated_Data!AO8:AO10)</f>
+        <v>0.32733369262972972</v>
+      </c>
+      <c r="AP2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP2:AP4,Collated_Data!AP8:AP10)</f>
+        <v>0.72680226288438099</v>
+      </c>
+      <c r="AQ2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ2:AQ4,Collated_Data!AQ8:AQ10)</f>
+        <v>0.48651685585629956</v>
+      </c>
+      <c r="AR2" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR2:AR4,Collated_Data!AR8:AR10)</f>
+        <v>0.60344222061982189</v>
+      </c>
+      <c r="AS2" s="7">
+        <f>AVERAGE(Collated_Data!AS2:AS4,Collated_Data!AS8:AS10)</f>
+        <v>0</v>
+      </c>
+      <c r="AT2" s="7">
+        <f>AVERAGE(Collated_Data!AT2:AT4,Collated_Data!AT8:AT10)</f>
+        <v>0.67666666666666675</v>
+      </c>
+      <c r="AU2" s="7">
+        <f>AVERAGE(Collated_Data!AU2:AU4,Collated_Data!AU8:AU10)</f>
+        <v>0</v>
+      </c>
+      <c r="AV2" s="10">
+        <f>AVERAGE(Collated_Data!AV2:AV4,Collated_Data!AV8:AV10)</f>
+        <v>6</v>
+      </c>
+      <c r="AW2" s="10">
+        <f>AVERAGE(Collated_Data!AW2:AW4,Collated_Data!AW8:AW10)</f>
+        <v>10</v>
+      </c>
+      <c r="AX2" s="18">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="AY2" s="18">
+        <v>16.16</v>
+      </c>
+      <c r="AZ2" s="18">
+        <v>99.78</v>
+      </c>
+      <c r="BA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
+        <v>44743</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="10">
+        <f>AVERAGE(Collated_Data!D5:D7,Collated_Data!D11:D13)</f>
+        <v>593.33333333333337</v>
+      </c>
+      <c r="E3" s="10">
+        <f>AVERAGE(Collated_Data!E5:E7,Collated_Data!E11:E13)</f>
+        <v>3208</v>
+      </c>
+      <c r="F3" s="10">
+        <f>AVERAGE(Collated_Data!F5:F7,Collated_Data!F11:F13)</f>
+        <v>6.3358029764111015</v>
+      </c>
+      <c r="G3" s="9">
+        <f>AVERAGE(Collated_Data!G5:G7,Collated_Data!G11:G13)</f>
+        <v>0.22109825392551694</v>
+      </c>
+      <c r="H3" s="9">
+        <f>AVERAGE(Collated_Data!H5:H7,Collated_Data!H11:H13)</f>
+        <v>293993.83333333331</v>
+      </c>
+      <c r="I3" s="9">
+        <f>AVERAGE(Collated_Data!I5:I7,Collated_Data!I11:I13)</f>
+        <v>0.64456696449613904</v>
+      </c>
+      <c r="J3" s="9">
+        <f>AVERAGE(Collated_Data!J5:J7,Collated_Data!J11:J13)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <f>AVERAGE(Collated_Data!K5:K7,Collated_Data!K11:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <f>AVERAGE(Collated_Data!L5:L7,Collated_Data!L11:L13)</f>
+        <v>3.8275141650718716</v>
+      </c>
+      <c r="M3" s="9">
+        <f>AVERAGE(Collated_Data!M5:M7,Collated_Data!M11:M13)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="9">
+        <f>AVERAGE(Collated_Data!N5:N7,Collated_Data!N11:N13)</f>
+        <v>0.45023786121405612</v>
+      </c>
+      <c r="O3" s="9">
+        <f>AVERAGE(Collated_Data!O5:O7,Collated_Data!O11:O13)</f>
+        <v>0.47114513920009665</v>
+      </c>
+      <c r="P3" s="9">
+        <f>AVERAGE(Collated_Data!P5:P7,Collated_Data!P11:P13)</f>
+        <v>0.68664645112039924</v>
+      </c>
+      <c r="Q3" s="9">
+        <f>AVERAGE(Collated_Data!Q5:Q7,Collated_Data!Q11:Q13)</f>
+        <v>0.20200181995175007</v>
+      </c>
+      <c r="R3" s="9">
+        <f>AVERAGE(Collated_Data!R5:R7,Collated_Data!R11:R13)</f>
+        <v>0.7312056812204103</v>
+      </c>
+      <c r="S3" s="9">
+        <f>AVERAGE(Collated_Data!S5:S7,Collated_Data!S11:S13)</f>
+        <v>1.3739929807266906</v>
+      </c>
+      <c r="T3" s="9">
+        <f>AVERAGE(Collated_Data!T5:T7,Collated_Data!T11:T13)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="9">
+        <f>AVERAGE(Collated_Data!U5:U7,Collated_Data!U11:U13)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="9">
+        <f>AVERAGE(Collated_Data!V5:V7,Collated_Data!V11:V13)</f>
+        <v>1.2211345755347593</v>
+      </c>
+      <c r="W3" s="9">
+        <f>AVERAGE(Collated_Data!W5:W7,Collated_Data!W11:W13)</f>
+        <v>0.98408278292197338</v>
+      </c>
+      <c r="X3" s="9">
+        <f>AVERAGE(Collated_Data!X5:X7,Collated_Data!X11:X13)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="9">
+        <f>AVERAGE(Collated_Data!Y5:Y7,Collated_Data!Y11:Y13)</f>
+        <v>4.8034013354169636</v>
+      </c>
+      <c r="Z3" s="9">
+        <f>AVERAGE(Collated_Data!Z5:Z7,Collated_Data!Z11:Z13)</f>
+        <v>39.644548891054662</v>
+      </c>
+      <c r="AA3" s="9">
+        <f>AVERAGE(Collated_Data!AA5:AA7,Collated_Data!AA11:AA13)</f>
+        <v>2.3286781597587396</v>
+      </c>
+      <c r="AB3" s="9">
+        <f>AVERAGE(Collated_Data!AB5:AB7,Collated_Data!AB11:AB13)</f>
+        <v>39.86564714498018</v>
+      </c>
+      <c r="AC3" s="9">
+        <f>AVERAGE(Collated_Data!AC5:AC7,Collated_Data!AC11:AC13)</f>
+        <v>0.26859442063943906</v>
+      </c>
+      <c r="AD3" s="9">
+        <f>AVERAGE(Collated_Data!AD5:AD7,Collated_Data!AD11:AD13)</f>
+        <v>0.59283682423967621</v>
+      </c>
+      <c r="AE3" s="10">
+        <f>AVERAGE(Collated_Data!AE5:AE7,Collated_Data!AE11:AE13)</f>
+        <v>1634.09</v>
+      </c>
+      <c r="AF3" s="10">
+        <f>AVERAGE(Collated_Data!AF5:AF7,Collated_Data!AF11:AF13)</f>
+        <v>285.80666666666662</v>
+      </c>
+      <c r="AG3" s="10">
+        <f>AVERAGE(Collated_Data!AG5:AG7,Collated_Data!AG11:AG13)</f>
+        <v>27.820000000000004</v>
+      </c>
+      <c r="AH3" s="10">
+        <f>AVERAGE(Collated_Data!AH5:AH7,Collated_Data!AH11:AH13)</f>
+        <v>4569.3900000000003</v>
+      </c>
+      <c r="AI3" s="10">
+        <f>AVERAGE(Collated_Data!AI5:AI7,Collated_Data!AI11:AI13)</f>
+        <v>2155</v>
+      </c>
+      <c r="AJ3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ5:AJ7,Collated_Data!AJ11:AJ13)</f>
+        <v>4.4569010394209387</v>
+      </c>
+      <c r="AK3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK5:AK7,Collated_Data!AK11:AK13)</f>
+        <v>0.54081147652608064</v>
+      </c>
+      <c r="AL3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL5:AL7,Collated_Data!AL11:AL13)</f>
+        <v>0.42878036877903519</v>
+      </c>
+      <c r="AM3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM5:AM7,Collated_Data!AM11:AM13)</f>
+        <v>0.69305673843068283</v>
+      </c>
+      <c r="AN3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN5:AN7,Collated_Data!AN11:AN13)</f>
+        <v>0.48947826187462123</v>
+      </c>
+      <c r="AO3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO5:AO7,Collated_Data!AO11:AO13)</f>
+        <v>0.54922038525745431</v>
+      </c>
+      <c r="AP3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP5:AP7,Collated_Data!AP11:AP13)</f>
+        <v>0.56261627752957521</v>
+      </c>
+      <c r="AQ3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ5:AQ7,Collated_Data!AQ11:AQ13)</f>
+        <v>0.63028845256341504</v>
+      </c>
+      <c r="AR3" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR5:AR7,Collated_Data!AR11:AR13)</f>
+        <v>0.5626490784600735</v>
+      </c>
+      <c r="AS3" s="7">
+        <f>AVERAGE(Collated_Data!AS5:AS7,Collated_Data!AS11:AS13)</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="7">
+        <f>AVERAGE(Collated_Data!AT5:AT7,Collated_Data!AT11:AT13)</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="7">
+        <f>AVERAGE(Collated_Data!AU5:AU7,Collated_Data!AU11:AU13)</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="10">
+        <f>AVERAGE(Collated_Data!AV5:AV7,Collated_Data!AV11:AV13)</f>
+        <v>6</v>
+      </c>
+      <c r="AW3" s="10">
+        <f>AVERAGE(Collated_Data!AW5:AW7,Collated_Data!AW11:AW13)</f>
+        <v>10</v>
+      </c>
+      <c r="AX3" s="18">
+        <v>14.04</v>
+      </c>
+      <c r="AY3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="18">
+        <v>8.32</v>
+      </c>
+      <c r="BA3" s="18">
+        <v>2.13</v>
+      </c>
+      <c r="BB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A4" s="6">
+        <v>44754</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="10">
+        <f>AVERAGE(Collated_Data!D8:D10,Collated_Data!D14:D16)</f>
+        <v>476.66666666666669</v>
+      </c>
+      <c r="E4" s="10">
+        <f>AVERAGE(Collated_Data!E8:E10,Collated_Data!E14:E16)</f>
+        <v>3428</v>
+      </c>
+      <c r="F4" s="10">
+        <f>AVERAGE(Collated_Data!F8:F10,Collated_Data!F14:F16)</f>
+        <v>8.9761433370500914</v>
+      </c>
+      <c r="G4" s="9">
+        <f>AVERAGE(Collated_Data!G8:G10,Collated_Data!G14:G16)</f>
+        <v>1.1220239140023949</v>
+      </c>
+      <c r="H4" s="9">
+        <f>AVERAGE(Collated_Data!H8:H10,Collated_Data!H14:H16)</f>
+        <v>70366</v>
+      </c>
+      <c r="I4" s="9">
+        <f>AVERAGE(Collated_Data!I8:I10,Collated_Data!I14:I16)</f>
+        <v>0.24595291403316311</v>
+      </c>
+      <c r="J4" s="9">
+        <f>AVERAGE(Collated_Data!J8:J10,Collated_Data!J14:J16)</f>
+        <v>0.17699970207978274</v>
+      </c>
+      <c r="K4" s="9">
+        <f>AVERAGE(Collated_Data!K8:K10,Collated_Data!K14:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <f>AVERAGE(Collated_Data!L8:L10,Collated_Data!L14:L16)</f>
+        <v>0.14948524716581008</v>
+      </c>
+      <c r="M4" s="9">
+        <f>AVERAGE(Collated_Data!M8:M10,Collated_Data!M14:M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="9">
+        <f>AVERAGE(Collated_Data!N8:N10,Collated_Data!N14:N16)</f>
+        <v>4.3992148262649501E-2</v>
+      </c>
+      <c r="O4" s="9">
+        <f>AVERAGE(Collated_Data!O8:O10,Collated_Data!O14:O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="9">
+        <f>AVERAGE(Collated_Data!P8:P10,Collated_Data!P14:P16)</f>
+        <v>0.23481606622438353</v>
+      </c>
+      <c r="Q4" s="9">
+        <f>AVERAGE(Collated_Data!Q8:Q10,Collated_Data!Q14:Q16)</f>
+        <v>8.0998557120705486E-2</v>
+      </c>
+      <c r="R4" s="9">
+        <f>AVERAGE(Collated_Data!R8:R10,Collated_Data!R14:R16)</f>
+        <v>1.0233839032088374</v>
+      </c>
+      <c r="S4" s="9">
+        <f>AVERAGE(Collated_Data!S8:S10,Collated_Data!S14:S16)</f>
+        <v>0.2226278018450831</v>
+      </c>
+      <c r="T4" s="9">
+        <f>AVERAGE(Collated_Data!T8:T10,Collated_Data!T14:T16)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="9">
+        <f>AVERAGE(Collated_Data!U8:U10,Collated_Data!U14:U16)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="9">
+        <f>AVERAGE(Collated_Data!V8:V10,Collated_Data!V14:V16)</f>
+        <v>0.11383064839572192</v>
+      </c>
+      <c r="W4" s="9">
+        <f>AVERAGE(Collated_Data!W8:W10,Collated_Data!W14:W16)</f>
+        <v>0.78953401226179576</v>
+      </c>
+      <c r="X4" s="9">
+        <f>AVERAGE(Collated_Data!X8:X10,Collated_Data!X14:X16)</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="9">
+        <f>AVERAGE(Collated_Data!Y8:Y10,Collated_Data!Y14:Y16)</f>
+        <v>0.77965793683638374</v>
+      </c>
+      <c r="Z4" s="9">
+        <f>AVERAGE(Collated_Data!Z8:Z10,Collated_Data!Z14:Z16)</f>
+        <v>20.468363585356954</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>AVERAGE(Collated_Data!AA8:AA10,Collated_Data!AA14:AA16)</f>
+        <v>2.2533221475633627</v>
+      </c>
+      <c r="AB4" s="9">
+        <f>AVERAGE(Collated_Data!AB8:AB10,Collated_Data!AB14:AB16)</f>
+        <v>21.590387499359348</v>
+      </c>
+      <c r="AC4" s="9">
+        <f>AVERAGE(Collated_Data!AC8:AC10,Collated_Data!AC14:AC16)</f>
+        <v>0.16189885236568483</v>
+      </c>
+      <c r="AD4" s="9">
+        <f>AVERAGE(Collated_Data!AD8:AD10,Collated_Data!AD14:AD16)</f>
+        <v>0.78655048590314125</v>
+      </c>
+      <c r="AE4" s="10">
+        <f>AVERAGE(Collated_Data!AE8:AE10,Collated_Data!AE14:AE16)</f>
+        <v>8.8116666666666674</v>
+      </c>
+      <c r="AF4" s="10">
+        <f>AVERAGE(Collated_Data!AF8:AF10,Collated_Data!AF14:AF16)</f>
+        <v>45.726666666666667</v>
+      </c>
+      <c r="AG4" s="10">
+        <f>AVERAGE(Collated_Data!AG8:AG10,Collated_Data!AG14:AG16)</f>
+        <v>2.1550000000000002</v>
+      </c>
+      <c r="AH4" s="10">
+        <f>AVERAGE(Collated_Data!AH8:AH10,Collated_Data!AH14:AH16)</f>
+        <v>9474.4516666666659</v>
+      </c>
+      <c r="AI4" s="10">
+        <f>AVERAGE(Collated_Data!AI8:AI10,Collated_Data!AI14:AI16)</f>
+        <v>366.5</v>
+      </c>
+      <c r="AJ4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ8:AJ10,Collated_Data!AJ14:AJ16)</f>
+        <v>3.6728439657641174</v>
+      </c>
+      <c r="AK4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK8:AK10,Collated_Data!AK14:AK16)</f>
+        <v>0.40500194831801578</v>
+      </c>
+      <c r="AL4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL8:AL10,Collated_Data!AL14:AL16)</f>
+        <v>0.40691976873725633</v>
+      </c>
+      <c r="AM4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM8:AM10,Collated_Data!AM14:AM16)</f>
+        <v>0.73116782906474531</v>
+      </c>
+      <c r="AN4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN8:AN10,Collated_Data!AN14:AN16)</f>
+        <v>0.34256961795604396</v>
+      </c>
+      <c r="AO4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO8:AO10,Collated_Data!AO14:AO16)</f>
+        <v>0.34793624256184857</v>
+      </c>
+      <c r="AP4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP8:AP10,Collated_Data!AP14:AP16)</f>
+        <v>0.56572306581052156</v>
+      </c>
+      <c r="AQ4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ8:AQ10,Collated_Data!AQ14:AQ16)</f>
+        <v>0.41712342655466367</v>
+      </c>
+      <c r="AR4" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR8:AR10,Collated_Data!AR14:AR16)</f>
+        <v>0.45640206676102241</v>
+      </c>
+      <c r="AS4" s="7">
+        <f>AVERAGE(Collated_Data!AS8:AS10,Collated_Data!AS14:AS16)</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="7">
+        <f>AVERAGE(Collated_Data!AT8:AT10,Collated_Data!AT14:AT16)</f>
+        <v>0.66166666666666663</v>
+      </c>
+      <c r="AU4" s="7">
+        <f>AVERAGE(Collated_Data!AU8:AU10,Collated_Data!AU14:AU16)</f>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="10">
+        <f>AVERAGE(Collated_Data!AV8:AV10,Collated_Data!AV14:AV16)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AW4" s="10">
+        <f>AVERAGE(Collated_Data!AW8:AW10,Collated_Data!AW14:AW16)</f>
+        <v>11.5</v>
+      </c>
+      <c r="AX4" s="18">
+        <v>8.42</v>
+      </c>
+      <c r="AY4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A5" s="6">
+        <v>44754</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="10">
+        <f>AVERAGE(Collated_Data!D11:D13,Collated_Data!D17:D19)</f>
+        <v>550</v>
+      </c>
+      <c r="E5" s="10">
+        <f>AVERAGE(Collated_Data!E11:E13,Collated_Data!E17:E19)</f>
+        <v>2828</v>
+      </c>
+      <c r="F5" s="10">
+        <f>AVERAGE(Collated_Data!F11:F13,Collated_Data!F17:F19)</f>
+        <v>5.9753500464971134</v>
+      </c>
+      <c r="G5" s="9">
+        <f>AVERAGE(Collated_Data!G11:G13,Collated_Data!G17:G19)</f>
+        <v>0.26526721011898285</v>
+      </c>
+      <c r="H5" s="9">
+        <f>AVERAGE(Collated_Data!H11:H13,Collated_Data!H17:H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <f>AVERAGE(Collated_Data!I11:I13,Collated_Data!I17:I19)</f>
+        <v>1.2034199707909987</v>
+      </c>
+      <c r="J5" s="9">
+        <f>AVERAGE(Collated_Data!J11:J13,Collated_Data!J17:J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <f>AVERAGE(Collated_Data!K11:K13,Collated_Data!K17:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <f>AVERAGE(Collated_Data!L11:L13,Collated_Data!L17:L19)</f>
+        <v>2.501819763860611</v>
+      </c>
+      <c r="M5" s="9">
+        <f>AVERAGE(Collated_Data!M11:M13,Collated_Data!M17:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="9">
+        <f>AVERAGE(Collated_Data!N11:N13,Collated_Data!N17:N19)</f>
+        <v>0.37063920925494531</v>
+      </c>
+      <c r="O5" s="9">
+        <f>AVERAGE(Collated_Data!O11:O13,Collated_Data!O17:O19)</f>
+        <v>0.41902088630859163</v>
+      </c>
+      <c r="P5" s="9">
+        <f>AVERAGE(Collated_Data!P11:P13,Collated_Data!P17:P19)</f>
+        <v>0.49888690569077571</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>AVERAGE(Collated_Data!Q11:Q13,Collated_Data!Q17:Q19)</f>
+        <v>0.22543053786692413</v>
+      </c>
+      <c r="R5" s="9">
+        <f>AVERAGE(Collated_Data!R11:R13,Collated_Data!R17:R19)</f>
+        <v>0.78712593371909512</v>
+      </c>
+      <c r="S5" s="9">
+        <f>AVERAGE(Collated_Data!S11:S13,Collated_Data!S17:S19)</f>
+        <v>2.1229373149794974</v>
+      </c>
+      <c r="T5" s="9">
+        <f>AVERAGE(Collated_Data!T11:T13,Collated_Data!T17:T19)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <f>AVERAGE(Collated_Data!U11:U13,Collated_Data!U17:U19)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <f>AVERAGE(Collated_Data!V11:V13,Collated_Data!V17:V19)</f>
+        <v>1.1252114639037434</v>
+      </c>
+      <c r="W5" s="9">
+        <f>AVERAGE(Collated_Data!W11:W13,Collated_Data!W17:W19)</f>
+        <v>1.5925513146667514</v>
+      </c>
+      <c r="X5" s="9">
+        <f>AVERAGE(Collated_Data!X11:X13,Collated_Data!X17:X19)</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9">
+        <f>AVERAGE(Collated_Data!Y11:Y13,Collated_Data!Y17:Y19)</f>
+        <v>4.3229469076017466</v>
+      </c>
+      <c r="Z5" s="9">
+        <f>AVERAGE(Collated_Data!Z11:Z13,Collated_Data!Z17:Z19)</f>
+        <v>42.739326971911375</v>
+      </c>
+      <c r="AA5" s="9">
+        <f>AVERAGE(Collated_Data!AA11:AA13,Collated_Data!AA17:AA19)</f>
+        <v>3.0530159311250258</v>
+      </c>
+      <c r="AB5" s="9">
+        <f>AVERAGE(Collated_Data!AB11:AB13,Collated_Data!AB17:AB19)</f>
+        <v>43.004594182030367</v>
+      </c>
+      <c r="AC5" s="9">
+        <f>AVERAGE(Collated_Data!AC11:AC13,Collated_Data!AC17:AC19)</f>
+        <v>0.23924962095106819</v>
+      </c>
+      <c r="AD5" s="9">
+        <f>AVERAGE(Collated_Data!AD11:AD13,Collated_Data!AD17:AD19)</f>
+        <v>0.64827942413468065</v>
+      </c>
+      <c r="AE5" s="10">
+        <f>AVERAGE(Collated_Data!AE11:AE13,Collated_Data!AE17:AE19)</f>
+        <v>1235.2933333333333</v>
+      </c>
+      <c r="AF5" s="10">
+        <f>AVERAGE(Collated_Data!AF11:AF13,Collated_Data!AF17:AF19)</f>
+        <v>330.08000000000004</v>
+      </c>
+      <c r="AG5" s="10">
+        <f>AVERAGE(Collated_Data!AG11:AG13,Collated_Data!AG17:AG19)</f>
+        <v>19.798333333333332</v>
+      </c>
+      <c r="AH5" s="10">
+        <f>AVERAGE(Collated_Data!AH11:AH13,Collated_Data!AH17:AH19)</f>
+        <v>7059.4433333333336</v>
+      </c>
+      <c r="AI5" s="10">
+        <f>AVERAGE(Collated_Data!AI11:AI13,Collated_Data!AI17:AI19)</f>
+        <v>1648.3333333333333</v>
+      </c>
+      <c r="AJ5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ11:AJ13,Collated_Data!AJ17:AJ19)</f>
+        <v>4.4691205610867391</v>
+      </c>
+      <c r="AK5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK11:AK13,Collated_Data!AK17:AK19)</f>
+        <v>0.53562842065412641</v>
+      </c>
+      <c r="AL5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL11:AL13,Collated_Data!AL17:AL19)</f>
+        <v>0.43351390598648681</v>
+      </c>
+      <c r="AM5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM11:AM13,Collated_Data!AM17:AM19)</f>
+        <v>0.59650874043094582</v>
+      </c>
+      <c r="AN5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN11:AN13,Collated_Data!AN17:AN19)</f>
+        <v>0.61918323135666187</v>
+      </c>
+      <c r="AO5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO11:AO13,Collated_Data!AO17:AO19)</f>
+        <v>0.50512707131527657</v>
+      </c>
+      <c r="AP5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP11:AP13,Collated_Data!AP17:AP19)</f>
+        <v>0.507894618610919</v>
+      </c>
+      <c r="AQ5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ11:AQ13,Collated_Data!AQ17:AQ19)</f>
+        <v>0.64604519937255833</v>
+      </c>
+      <c r="AR5" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR11:AR13,Collated_Data!AR17:AR19)</f>
+        <v>0.62521937335976441</v>
+      </c>
+      <c r="AS5" s="7">
+        <f>AVERAGE(Collated_Data!AS11:AS13,Collated_Data!AS17:AS19)</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="7">
+        <f>AVERAGE(Collated_Data!AT11:AT13,Collated_Data!AT17:AT19)</f>
+        <v>0.47333333333333333</v>
+      </c>
+      <c r="AU5" s="7">
+        <f>AVERAGE(Collated_Data!AU11:AU13,Collated_Data!AU17:AU19)</f>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="10">
+        <f>AVERAGE(Collated_Data!AV11:AV13,Collated_Data!AV17:AV19)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AW5" s="10">
+        <f>AVERAGE(Collated_Data!AW11:AW13,Collated_Data!AW17:AW19)</f>
+        <v>11.5</v>
+      </c>
+      <c r="AX5" s="18">
+        <v>267.72000000000003</v>
+      </c>
+      <c r="AY5" s="18">
+        <v>59.14</v>
+      </c>
+      <c r="AZ5" s="18">
+        <v>395.52</v>
+      </c>
+      <c r="BA5" s="18">
+        <v>14.79</v>
+      </c>
+      <c r="BB5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A6" s="6">
+        <v>44764</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="10">
+        <f>AVERAGE(Collated_Data!D14:D16,Collated_Data!D20:D22)</f>
+        <v>376.66666666666669</v>
+      </c>
+      <c r="E6" s="10">
+        <f>AVERAGE(Collated_Data!E14:E16,Collated_Data!E20:E22)</f>
+        <v>2861.3333333333335</v>
+      </c>
+      <c r="F6" s="10">
+        <f>AVERAGE(Collated_Data!F14:F16,Collated_Data!F20:F22)</f>
+        <v>9.100843949676678</v>
+      </c>
+      <c r="G6" s="9">
+        <f>AVERAGE(Collated_Data!G14:G16,Collated_Data!G20:G22)</f>
+        <v>1.6970247331908828</v>
+      </c>
+      <c r="H6" s="9">
+        <f>AVERAGE(Collated_Data!H14:H16,Collated_Data!H20:H22)</f>
+        <v>173429</v>
+      </c>
+      <c r="I6" s="9">
+        <f>AVERAGE(Collated_Data!I14:I16,Collated_Data!I20:I22)</f>
+        <v>0.2347081829425097</v>
+      </c>
+      <c r="J6" s="9">
+        <f>AVERAGE(Collated_Data!J14:J16,Collated_Data!J20:J22)</f>
+        <v>0.14579746917607586</v>
+      </c>
+      <c r="K6" s="9">
+        <f>AVERAGE(Collated_Data!K14:K16,Collated_Data!K20:K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f>AVERAGE(Collated_Data!L14:L16,Collated_Data!L20:L22)</f>
+        <v>0.18512731402024721</v>
+      </c>
+      <c r="M6" s="9">
+        <f>AVERAGE(Collated_Data!M14:M16,Collated_Data!M20:M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <f>AVERAGE(Collated_Data!N14:N16,Collated_Data!N20:N22)</f>
+        <v>4.6731776458989349E-2</v>
+      </c>
+      <c r="O6" s="9">
+        <f>AVERAGE(Collated_Data!O14:O16,Collated_Data!O20:O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <f>AVERAGE(Collated_Data!P14:P16,Collated_Data!P20:P22)</f>
+        <v>0.18629614028502384</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>AVERAGE(Collated_Data!Q14:Q16,Collated_Data!Q20:Q22)</f>
+        <v>7.6806940826558201E-2</v>
+      </c>
+      <c r="R6" s="9">
+        <f>AVERAGE(Collated_Data!R14:R16,Collated_Data!R20:R22)</f>
+        <v>1.0163925302472381</v>
+      </c>
+      <c r="S6" s="9">
+        <f>AVERAGE(Collated_Data!S14:S16,Collated_Data!S20:S22)</f>
+        <v>0.19260019240647649</v>
+      </c>
+      <c r="T6" s="9">
+        <f>AVERAGE(Collated_Data!T14:T16,Collated_Data!T20:T22)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <f>AVERAGE(Collated_Data!U14:U16,Collated_Data!U20:U22)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <f>AVERAGE(Collated_Data!V14:V16,Collated_Data!V20:V22)</f>
+        <v>0.12492257687165775</v>
+      </c>
+      <c r="W6" s="9">
+        <f>AVERAGE(Collated_Data!W14:W16,Collated_Data!W20:W22)</f>
+        <v>0.69430217188635712</v>
+      </c>
+      <c r="X6" s="9">
+        <f>AVERAGE(Collated_Data!X14:X16,Collated_Data!X20:X22)</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <f>AVERAGE(Collated_Data!Y14:Y16,Collated_Data!Y20:Y22)</f>
+        <v>0.62570265045059514</v>
+      </c>
+      <c r="Z6" s="9">
+        <f>AVERAGE(Collated_Data!Z14:Z16,Collated_Data!Z20:Z22)</f>
+        <v>24.175022972951989</v>
+      </c>
+      <c r="AA6" s="9">
+        <f>AVERAGE(Collated_Data!AA14:AA16,Collated_Data!AA20:AA22)</f>
+        <v>2.4347896105976501</v>
+      </c>
+      <c r="AB6" s="9">
+        <f>AVERAGE(Collated_Data!AB14:AB16,Collated_Data!AB20:AB22)</f>
+        <v>25.872047706142865</v>
+      </c>
+      <c r="AC6" s="9">
+        <f>AVERAGE(Collated_Data!AC14:AC16,Collated_Data!AC20:AC22)</f>
+        <v>0.15180038953645161</v>
+      </c>
+      <c r="AD6" s="9">
+        <f>AVERAGE(Collated_Data!AD14:AD16,Collated_Data!AD20:AD22)</f>
+        <v>0.89714191265078191</v>
+      </c>
+      <c r="AE6" s="10">
+        <f>AVERAGE(Collated_Data!AE14:AE16,Collated_Data!AE20:AE22)</f>
+        <v>7.3449999999999998</v>
+      </c>
+      <c r="AF6" s="10">
+        <f>AVERAGE(Collated_Data!AF14:AF16,Collated_Data!AF20:AF22)</f>
+        <v>29.331666666666667</v>
+      </c>
+      <c r="AG6" s="10">
+        <f>AVERAGE(Collated_Data!AG14:AG16,Collated_Data!AG20:AG22)</f>
+        <v>3.4616666666666664</v>
+      </c>
+      <c r="AH6" s="10">
+        <f>AVERAGE(Collated_Data!AH14:AH16,Collated_Data!AH20:AH22)</f>
+        <v>10006.718333333332</v>
+      </c>
+      <c r="AI6" s="10">
+        <f>AVERAGE(Collated_Data!AI14:AI16,Collated_Data!AI20:AI22)</f>
+        <v>384.83333333333331</v>
+      </c>
+      <c r="AJ6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ14:AJ16,Collated_Data!AJ20:AJ22)</f>
+        <v>4.402650541223271</v>
+      </c>
+      <c r="AK6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK14:AK16,Collated_Data!AK20:AK22)</f>
+        <v>0.43273191248447657</v>
+      </c>
+      <c r="AL6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL14:AL16,Collated_Data!AL20:AL22)</f>
+        <v>0.61126732697280117</v>
+      </c>
+      <c r="AM6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM14:AM16,Collated_Data!AM20:AM22)</f>
+        <v>0.76143644056185733</v>
+      </c>
+      <c r="AN6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN14:AN16,Collated_Data!AN20:AN22)</f>
+        <v>0.49672723885243936</v>
+      </c>
+      <c r="AO6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO14:AO16,Collated_Data!AO20:AO22)</f>
+        <v>0.45529949682733067</v>
+      </c>
+      <c r="AP6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP14:AP16,Collated_Data!AP20:AP22)</f>
+        <v>0.47777860196424055</v>
+      </c>
+      <c r="AQ6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ14:AQ16,Collated_Data!AQ20:AQ22)</f>
+        <v>0.54987124039824808</v>
+      </c>
+      <c r="AR6" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR14:AR16,Collated_Data!AR20:AR22)</f>
+        <v>0.61753828316187698</v>
+      </c>
+      <c r="AS6" s="7">
+        <f>AVERAGE(Collated_Data!AS14:AS16,Collated_Data!AS20:AS22)</f>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="7">
+        <f>AVERAGE(Collated_Data!AT14:AT16,Collated_Data!AT20:AT22)</f>
+        <v>1.2649999999999999</v>
+      </c>
+      <c r="AU6" s="7">
+        <f>AVERAGE(Collated_Data!AU14:AU16,Collated_Data!AU20:AU22)</f>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="10">
+        <f>AVERAGE(Collated_Data!AV14:AV16,Collated_Data!AV20:AV22)</f>
+        <v>7</v>
+      </c>
+      <c r="AW6" s="10">
+        <f>AVERAGE(Collated_Data!AW14:AW16,Collated_Data!AW20:AW22)</f>
+        <v>22</v>
+      </c>
+      <c r="AX6" s="18">
+        <v>9.66</v>
+      </c>
+      <c r="AY6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="18">
+        <v>4.78</v>
+      </c>
+      <c r="BA6" s="18">
+        <v>1.93</v>
+      </c>
+      <c r="BB6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A7" s="6">
+        <v>44764</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="10">
+        <f>AVERAGE(Collated_Data!D17:D19,Collated_Data!D23:D25)</f>
+        <v>710</v>
+      </c>
+      <c r="E7" s="10">
+        <f>AVERAGE(Collated_Data!E17:E19,Collated_Data!E23:E25)</f>
+        <v>3861.3333333333335</v>
+      </c>
+      <c r="F7" s="10">
+        <f>AVERAGE(Collated_Data!F17:F19,Collated_Data!F23:F25)</f>
+        <v>6.1316323058434454</v>
+      </c>
+      <c r="G7" s="9">
+        <f>AVERAGE(Collated_Data!G17:G19,Collated_Data!G23:G25)</f>
+        <v>0.398081867291465</v>
+      </c>
+      <c r="H7" s="9">
+        <f>AVERAGE(Collated_Data!H17:H19,Collated_Data!H23:H25)</f>
+        <v>227547.83333333334</v>
+      </c>
+      <c r="I7" s="9">
+        <f>AVERAGE(Collated_Data!I17:I19,Collated_Data!I23:I25)</f>
+        <v>0.81400969643387688</v>
+      </c>
+      <c r="J7" s="9">
+        <f>AVERAGE(Collated_Data!J17:J19,Collated_Data!J23:J25)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
+        <f>AVERAGE(Collated_Data!K17:K19,Collated_Data!K23:K25)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <f>AVERAGE(Collated_Data!L17:L19,Collated_Data!L23:L25)</f>
+        <v>1.3711721814445788</v>
+      </c>
+      <c r="M7" s="9">
+        <f>AVERAGE(Collated_Data!M17:M19,Collated_Data!M23:M25)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <f>AVERAGE(Collated_Data!N17:N19,Collated_Data!N23:N25)</f>
+        <v>0.19141229950759367</v>
+      </c>
+      <c r="O7" s="9">
+        <f>AVERAGE(Collated_Data!O17:O19,Collated_Data!O23:O25)</f>
+        <v>0.21011903131435705</v>
+      </c>
+      <c r="P7" s="9">
+        <f>AVERAGE(Collated_Data!P17:P19,Collated_Data!P23:P25)</f>
+        <v>0.3129459053660224</v>
+      </c>
+      <c r="Q7" s="9">
+        <f>AVERAGE(Collated_Data!Q17:Q19,Collated_Data!Q23:Q25)</f>
+        <v>0.15536048126757904</v>
+      </c>
+      <c r="R7" s="9">
+        <f>AVERAGE(Collated_Data!R17:R19,Collated_Data!R23:R25)</f>
+        <v>1.0502422935297213</v>
+      </c>
+      <c r="S7" s="9">
+        <f>AVERAGE(Collated_Data!S17:S19,Collated_Data!S23:S25)</f>
+        <v>1.5676022916561507</v>
+      </c>
+      <c r="T7" s="9">
+        <f>AVERAGE(Collated_Data!T17:T19,Collated_Data!T23:T25)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <f>AVERAGE(Collated_Data!U17:U19,Collated_Data!U23:U25)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <f>AVERAGE(Collated_Data!V17:V19,Collated_Data!V23:V25)</f>
+        <v>0.63467727272727281</v>
+      </c>
+      <c r="W7" s="9">
+        <f>AVERAGE(Collated_Data!W17:W19,Collated_Data!W23:W25)</f>
+        <v>1.6658263162468796</v>
+      </c>
+      <c r="X7" s="9">
+        <f>AVERAGE(Collated_Data!X17:X19,Collated_Data!X23:X25)</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <f>AVERAGE(Collated_Data!Y17:Y19,Collated_Data!Y23:Y25)</f>
+        <v>2.3628676133591107</v>
+      </c>
+      <c r="Z7" s="9">
+        <f>AVERAGE(Collated_Data!Z17:Z19,Collated_Data!Z23:Z25)</f>
+        <v>41.519593802175955</v>
+      </c>
+      <c r="AA7" s="9">
+        <f>AVERAGE(Collated_Data!AA17:AA19,Collated_Data!AA23:AA25)</f>
+        <v>3.6466906824814216</v>
+      </c>
+      <c r="AB7" s="9">
+        <f>AVERAGE(Collated_Data!AB17:AB19,Collated_Data!AB23:AB25)</f>
+        <v>41.917675669467421</v>
+      </c>
+      <c r="AC7" s="9">
+        <f>AVERAGE(Collated_Data!AC17:AC19,Collated_Data!AC23:AC25)</f>
+        <v>3.0645995265633899E-2</v>
+      </c>
+      <c r="AD7" s="9">
+        <f>AVERAGE(Collated_Data!AD17:AD19,Collated_Data!AD23:AD25)</f>
+        <v>0.90737453616980634</v>
+      </c>
+      <c r="AE7" s="10">
+        <f>AVERAGE(Collated_Data!AE17:AE19,Collated_Data!AE23:AE25)</f>
+        <v>598.64333333333332</v>
+      </c>
+      <c r="AF7" s="10">
+        <f>AVERAGE(Collated_Data!AF17:AF19,Collated_Data!AF23:AF25)</f>
+        <v>206.14166666666665</v>
+      </c>
+      <c r="AG7" s="10">
+        <f>AVERAGE(Collated_Data!AG17:AG19,Collated_Data!AG23:AG25)</f>
+        <v>9.9483333333333341</v>
+      </c>
+      <c r="AH7" s="10">
+        <f>AVERAGE(Collated_Data!AH17:AH19,Collated_Data!AH23:AH25)</f>
+        <v>9281.7266666666674</v>
+      </c>
+      <c r="AI7" s="10">
+        <f>AVERAGE(Collated_Data!AI17:AI19,Collated_Data!AI23:AI25)</f>
+        <v>1703.3333333333333</v>
+      </c>
+      <c r="AJ7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ17:AJ19,Collated_Data!AJ23:AJ25)</f>
+        <v>4.5169305234894583</v>
+      </c>
+      <c r="AK7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK17:AK19,Collated_Data!AK23:AK25)</f>
+        <v>0.61837264684717397</v>
+      </c>
+      <c r="AL7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL17:AL19,Collated_Data!AL23:AL25)</f>
+        <v>0.43145548086472441</v>
+      </c>
+      <c r="AM7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM17:AM19,Collated_Data!AM23:AM25)</f>
+        <v>0.63506987328600073</v>
+      </c>
+      <c r="AN7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN17:AN19,Collated_Data!AN23:AN25)</f>
+        <v>0.68345519008762867</v>
+      </c>
+      <c r="AO7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO17:AO19,Collated_Data!AO23:AO25)</f>
+        <v>0.56523468892689732</v>
+      </c>
+      <c r="AP7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP17:AP19,Collated_Data!AP23:AP25)</f>
+        <v>0.67172229827012941</v>
+      </c>
+      <c r="AQ7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ17:AQ19,Collated_Data!AQ23:AQ25)</f>
+        <v>0.35751857074617149</v>
+      </c>
+      <c r="AR7" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR17:AR19,Collated_Data!AR23:AR25)</f>
+        <v>0.55410177446073228</v>
+      </c>
+      <c r="AS7" s="7">
+        <f>AVERAGE(Collated_Data!AS17:AS19,Collated_Data!AS23:AS25)</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="7">
+        <f>AVERAGE(Collated_Data!AT17:AT19,Collated_Data!AT23:AT25)</f>
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="AU7" s="7">
+        <f>AVERAGE(Collated_Data!AU17:AU19,Collated_Data!AU23:AU25)</f>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="10">
+        <f>AVERAGE(Collated_Data!AV17:AV19,Collated_Data!AV23:AV25)</f>
+        <v>7</v>
+      </c>
+      <c r="AW7" s="10">
+        <f>AVERAGE(Collated_Data!AW17:AW19,Collated_Data!AW23:AW25)</f>
+        <v>22</v>
+      </c>
+      <c r="AX7" s="18">
+        <v>38.72</v>
+      </c>
+      <c r="AY7" s="18">
+        <v>12.78</v>
+      </c>
+      <c r="AZ7" s="18">
+        <v>43.53</v>
+      </c>
+      <c r="BA7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A8" s="6">
+        <v>44784</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="10">
+        <f>AVERAGE(Collated_Data!D20:D22,Collated_Data!D26:D28)</f>
+        <v>436.66666666666669</v>
+      </c>
+      <c r="E8" s="10">
+        <f>AVERAGE(Collated_Data!E20:E22,Collated_Data!E26:E28)</f>
+        <v>2611.3333333333335</v>
+      </c>
+      <c r="F8" s="10">
+        <f>AVERAGE(Collated_Data!F20:F22,Collated_Data!F26:F28)</f>
+        <v>7.026808035005117</v>
+      </c>
+      <c r="G8" s="9">
+        <f>AVERAGE(Collated_Data!G20:G22,Collated_Data!G26:G28)</f>
+        <v>0.72883821313795039</v>
+      </c>
+      <c r="H8" s="9">
+        <f>AVERAGE(Collated_Data!H20:H22,Collated_Data!H26:H28)</f>
+        <v>173429</v>
+      </c>
+      <c r="I8" s="9">
+        <f>AVERAGE(Collated_Data!I20:I22,Collated_Data!I26:I28)</f>
+        <v>0.28484875094459866</v>
+      </c>
+      <c r="J8" s="9">
+        <f>AVERAGE(Collated_Data!J20:J22,Collated_Data!J26:J28)</f>
+        <v>8.5859583044844492E-2</v>
+      </c>
+      <c r="K8" s="9">
+        <f>AVERAGE(Collated_Data!K20:K22,Collated_Data!K26:K28)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <f>AVERAGE(Collated_Data!L20:L22,Collated_Data!L26:L28)</f>
+        <v>0.23864627523263629</v>
+      </c>
+      <c r="M8" s="9">
+        <f>AVERAGE(Collated_Data!M20:M22,Collated_Data!M26:M28)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="9">
+        <f>AVERAGE(Collated_Data!N20:N22,Collated_Data!N26:N28)</f>
+        <v>0.11436702434175132</v>
+      </c>
+      <c r="O8" s="9">
+        <f>AVERAGE(Collated_Data!O20:O22,Collated_Data!O26:O28)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <f>AVERAGE(Collated_Data!P20:P22,Collated_Data!P26:P28)</f>
+        <v>0.16227611101504411</v>
+      </c>
+      <c r="Q8" s="9">
+        <f>AVERAGE(Collated_Data!Q20:Q22,Collated_Data!Q26:Q28)</f>
+        <v>7.6663247363378553E-2</v>
+      </c>
+      <c r="R8" s="9">
+        <f>AVERAGE(Collated_Data!R20:R22,Collated_Data!R26:R28)</f>
+        <v>1.1350133613887428</v>
+      </c>
+      <c r="S8" s="9">
+        <f>AVERAGE(Collated_Data!S20:S22,Collated_Data!S26:S28)</f>
+        <v>0.34456541968662685</v>
+      </c>
+      <c r="T8" s="9">
+        <f>AVERAGE(Collated_Data!T20:T22,Collated_Data!T26:T28)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <f>AVERAGE(Collated_Data!U20:U22,Collated_Data!U26:U28)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <f>AVERAGE(Collated_Data!V20:V22,Collated_Data!V26:V28)</f>
+        <v>0.31090937499999999</v>
+      </c>
+      <c r="W8" s="9">
+        <f>AVERAGE(Collated_Data!W20:W22,Collated_Data!W26:W28)</f>
+        <v>0.74637771782068718</v>
+      </c>
+      <c r="X8" s="9">
+        <f>AVERAGE(Collated_Data!X20:X22,Collated_Data!X26:X28)</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <f>AVERAGE(Collated_Data!Y20:Y22,Collated_Data!Y26:Y28)</f>
+        <v>1.5393953717487048</v>
+      </c>
+      <c r="Z8" s="9">
+        <f>AVERAGE(Collated_Data!Z20:Z22,Collated_Data!Z26:Z28)</f>
+        <v>24.319269911315434</v>
+      </c>
+      <c r="AA8" s="9">
+        <f>AVERAGE(Collated_Data!AA20:AA22,Collated_Data!AA26:AA28)</f>
+        <v>2.4117268089344543</v>
+      </c>
+      <c r="AB8" s="9">
+        <f>AVERAGE(Collated_Data!AB20:AB22,Collated_Data!AB26:AB28)</f>
+        <v>25.048108124453389</v>
+      </c>
+      <c r="AC8" s="9">
+        <f>AVERAGE(Collated_Data!AC20:AC22,Collated_Data!AC26:AC28)</f>
+        <v>9.2715740269079805E-2</v>
+      </c>
+      <c r="AD8" s="9">
+        <f>AVERAGE(Collated_Data!AD20:AD22,Collated_Data!AD26:AD28)</f>
+        <v>0.83065881337024061</v>
+      </c>
+      <c r="AE8" s="10">
+        <f>AVERAGE(Collated_Data!AE20:AE22,Collated_Data!AE26:AE28)</f>
+        <v>7.4249999999999998</v>
+      </c>
+      <c r="AF8" s="10">
+        <f>AVERAGE(Collated_Data!AF20:AF22,Collated_Data!AF26:AF28)</f>
+        <v>35.774999999999999</v>
+      </c>
+      <c r="AG8" s="10">
+        <f>AVERAGE(Collated_Data!AG20:AG22,Collated_Data!AG26:AG28)</f>
+        <v>3.2866666666666671</v>
+      </c>
+      <c r="AH8" s="10">
+        <f>AVERAGE(Collated_Data!AH20:AH22,Collated_Data!AH26:AH28)</f>
+        <v>9649.6333333333332</v>
+      </c>
+      <c r="AI8" s="10">
+        <f>AVERAGE(Collated_Data!AI20:AI22,Collated_Data!AI26:AI28)</f>
+        <v>353.83333333333331</v>
+      </c>
+      <c r="AJ8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ20:AJ22,Collated_Data!AJ26:AJ28)</f>
+        <v>4.5362062564596872</v>
+      </c>
+      <c r="AK8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK20:AK22,Collated_Data!AK26:AK28)</f>
+        <v>0.35548280595002996</v>
+      </c>
+      <c r="AL8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL20:AL22,Collated_Data!AL26:AL28)</f>
+        <v>0.66880193247030961</v>
+      </c>
+      <c r="AM8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM20:AM22,Collated_Data!AM26:AM28)</f>
+        <v>0.49374503090304939</v>
+      </c>
+      <c r="AN8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN20:AN22,Collated_Data!AN26:AN28)</f>
+        <v>0.73329386408309816</v>
+      </c>
+      <c r="AO8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO20:AO22,Collated_Data!AO26:AO28)</f>
+        <v>0.53268996702376037</v>
+      </c>
+      <c r="AP8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP20:AP22,Collated_Data!AP26:AP28)</f>
+        <v>0.4247291627866942</v>
+      </c>
+      <c r="AQ8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ20:AQ22,Collated_Data!AQ26:AQ28)</f>
+        <v>0.60090004337323033</v>
+      </c>
+      <c r="AR8" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR20:AR22,Collated_Data!AR26:AR28)</f>
+        <v>0.72656344986951549</v>
+      </c>
+      <c r="AS8" s="7">
+        <f>AVERAGE(Collated_Data!AS20:AS22,Collated_Data!AS26:AS28)</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="7">
+        <f>AVERAGE(Collated_Data!AT20:AT22,Collated_Data!AT26:AT28)</f>
+        <v>0.82</v>
+      </c>
+      <c r="AU8" s="7">
+        <f>AVERAGE(Collated_Data!AU20:AU22,Collated_Data!AU26:AU28)</f>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="10">
+        <f>AVERAGE(Collated_Data!AV20:AV22,Collated_Data!AV26:AV28)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AW8" s="10">
+        <f>AVERAGE(Collated_Data!AW20:AW22,Collated_Data!AW26:AW28)</f>
+        <v>21</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A9" s="6">
+        <v>44784</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="10">
+        <f>AVERAGE(Collated_Data!D23:D25,Collated_Data!D29:D31)</f>
+        <v>670</v>
+      </c>
+      <c r="E9" s="10">
+        <f>AVERAGE(Collated_Data!E23:E25,Collated_Data!E29:E31)</f>
+        <v>3831.3333333333335</v>
+      </c>
+      <c r="F9" s="10">
+        <f>AVERAGE(Collated_Data!F23:F25,Collated_Data!F29:F31)</f>
+        <v>6.6147490828577462</v>
+      </c>
+      <c r="G9" s="9">
+        <f>AVERAGE(Collated_Data!G23:G25,Collated_Data!G29:G31)</f>
+        <v>0.30286138815212854</v>
+      </c>
+      <c r="H9" s="9">
+        <f>AVERAGE(Collated_Data!H23:H25,Collated_Data!H29:H31)</f>
+        <v>394393.83333333331</v>
+      </c>
+      <c r="I9" s="9">
+        <f>AVERAGE(Collated_Data!I23:I25,Collated_Data!I29:I31)</f>
+        <v>0.10099672098478363</v>
+      </c>
+      <c r="J9" s="9">
+        <f>AVERAGE(Collated_Data!J23:J25,Collated_Data!J29:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <f>AVERAGE(Collated_Data!K23:K25,Collated_Data!K29:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <f>AVERAGE(Collated_Data!L23:L25,Collated_Data!L29:L31)</f>
+        <v>0.96278827860874294</v>
+      </c>
+      <c r="M9" s="9">
+        <f>AVERAGE(Collated_Data!M23:M25,Collated_Data!M29:M31)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <f>AVERAGE(Collated_Data!N23:N25,Collated_Data!N29:N31)</f>
+        <v>9.0382824768339629E-2</v>
+      </c>
+      <c r="O9" s="9">
+        <f>AVERAGE(Collated_Data!O23:O25,Collated_Data!O29:O31)</f>
+        <v>8.391901520148641E-2</v>
+      </c>
+      <c r="P9" s="9">
+        <f>AVERAGE(Collated_Data!P23:P25,Collated_Data!P29:P31)</f>
+        <v>0.16985972973770894</v>
+      </c>
+      <c r="Q9" s="9">
+        <f>AVERAGE(Collated_Data!Q23:Q25,Collated_Data!Q29:Q31)</f>
+        <v>9.8318631996521688E-2</v>
+      </c>
+      <c r="R9" s="9">
+        <f>AVERAGE(Collated_Data!R23:R25,Collated_Data!R29:R31)</f>
+        <v>1.1234397685428721</v>
+      </c>
+      <c r="S9" s="9">
+        <f>AVERAGE(Collated_Data!S23:S25,Collated_Data!S29:S31)</f>
+        <v>0.47350881120708338</v>
+      </c>
+      <c r="T9" s="9">
+        <f>AVERAGE(Collated_Data!T23:T25,Collated_Data!T29:T31)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <f>AVERAGE(Collated_Data!U23:U25,Collated_Data!U29:U31)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <f>AVERAGE(Collated_Data!V23:V25,Collated_Data!V29:V31)</f>
+        <v>0.16979692513368982</v>
+      </c>
+      <c r="W9" s="9">
+        <f>AVERAGE(Collated_Data!W23:W25,Collated_Data!W29:W31)</f>
+        <v>1.0559230161489113</v>
+      </c>
+      <c r="X9" s="9">
+        <f>AVERAGE(Collated_Data!X23:X25,Collated_Data!X29:X31)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <f>AVERAGE(Collated_Data!Y23:Y25,Collated_Data!Y29:Y31)</f>
+        <v>0.78411271363891855</v>
+      </c>
+      <c r="Z9" s="9">
+        <f>AVERAGE(Collated_Data!Z23:Z25,Collated_Data!Z29:Z31)</f>
+        <v>30.535678607761067</v>
+      </c>
+      <c r="AA9" s="9">
+        <f>AVERAGE(Collated_Data!AA23:AA25,Collated_Data!AA29:AA31)</f>
+        <v>3.3077241074600043</v>
+      </c>
+      <c r="AB9" s="9">
+        <f>AVERAGE(Collated_Data!AB23:AB25,Collated_Data!AB29:AB31)</f>
+        <v>30.838539995913184</v>
+      </c>
+      <c r="AC9" s="9">
+        <f>AVERAGE(Collated_Data!AC23:AC25,Collated_Data!AC29:AC31)</f>
+        <v>5.0265160459053722E-2</v>
+      </c>
+      <c r="AD9" s="9">
+        <f>AVERAGE(Collated_Data!AD23:AD25,Collated_Data!AD29:AD31)</f>
+        <v>0.91740801546299477</v>
+      </c>
+      <c r="AE9" s="10">
+        <f>AVERAGE(Collated_Data!AE23:AE25,Collated_Data!AE29:AE31)</f>
+        <v>642.72666666666657</v>
+      </c>
+      <c r="AF9" s="10">
+        <f>AVERAGE(Collated_Data!AF23:AF25,Collated_Data!AF29:AF31)</f>
+        <v>241.74666666666667</v>
+      </c>
+      <c r="AG9" s="10">
+        <f>AVERAGE(Collated_Data!AG23:AG25,Collated_Data!AG29:AG31)</f>
+        <v>13.261666666666665</v>
+      </c>
+      <c r="AH9" s="10">
+        <f>AVERAGE(Collated_Data!AH23:AH25,Collated_Data!AH29:AH31)</f>
+        <v>8914.9116666666669</v>
+      </c>
+      <c r="AI9" s="10">
+        <f>AVERAGE(Collated_Data!AI23:AI25,Collated_Data!AI29:AI31)</f>
+        <v>1731.6666666666667</v>
+      </c>
+      <c r="AJ9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ23:AJ25,Collated_Data!AJ29:AJ31)</f>
+        <v>4.5226591947296262</v>
+      </c>
+      <c r="AK9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK23:AK25,Collated_Data!AK29:AK31)</f>
+        <v>0.77650353378756876</v>
+      </c>
+      <c r="AL9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL23:AL25,Collated_Data!AL29:AL31)</f>
+        <v>0.53805072440070423</v>
+      </c>
+      <c r="AM9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM23:AM25,Collated_Data!AM29:AM31)</f>
+        <v>0.57973886867470437</v>
+      </c>
+      <c r="AN9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN23:AN25,Collated_Data!AN29:AN31)</f>
+        <v>0.55844237415804088</v>
+      </c>
+      <c r="AO9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO23:AO25,Collated_Data!AO29:AO31)</f>
+        <v>0.50610074882591694</v>
+      </c>
+      <c r="AP9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP23:AP25,Collated_Data!AP29:AP31)</f>
+        <v>0.61867650152402753</v>
+      </c>
+      <c r="AQ9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ23:AQ25,Collated_Data!AQ29:AQ31)</f>
+        <v>0.4915976582554773</v>
+      </c>
+      <c r="AR9" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR23:AR25,Collated_Data!AR29:AR31)</f>
+        <v>0.4535487851031868</v>
+      </c>
+      <c r="AS9" s="7">
+        <f>AVERAGE(Collated_Data!AS23:AS25,Collated_Data!AS29:AS31)</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7">
+        <f>AVERAGE(Collated_Data!AT23:AT25,Collated_Data!AT29:AT31)</f>
+        <v>0.78166666666666662</v>
+      </c>
+      <c r="AU9" s="7">
+        <f>AVERAGE(Collated_Data!AU23:AU25,Collated_Data!AU29:AU31)</f>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="10">
+        <f>AVERAGE(Collated_Data!AV23:AV25,Collated_Data!AV29:AV31)</f>
+        <v>10.5</v>
+      </c>
+      <c r="AW9" s="10">
+        <f>AVERAGE(Collated_Data!AW23:AW25,Collated_Data!AW29:AW31)</f>
+        <v>21</v>
+      </c>
+      <c r="AX9" s="18">
+        <v>72.430000000000007</v>
+      </c>
+      <c r="AY9" s="18">
+        <v>13.83</v>
+      </c>
+      <c r="AZ9" s="18">
+        <v>54.5</v>
+      </c>
+      <c r="BA9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A10" s="6">
+        <v>44793</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="10">
+        <f>AVERAGE(Collated_Data!D26:D28,Collated_Data!D32:D34)</f>
+        <v>460</v>
+      </c>
+      <c r="E10" s="10">
+        <f>AVERAGE(Collated_Data!E26:E28,Collated_Data!E32:E34)</f>
+        <v>2781.3333333333335</v>
+      </c>
+      <c r="F10" s="10">
+        <f>AVERAGE(Collated_Data!F26:F28,Collated_Data!F32:F34)</f>
+        <v>7.0673367983000821</v>
+      </c>
+      <c r="G10" s="9">
+        <f>AVERAGE(Collated_Data!G26:G28,Collated_Data!G32:G34)</f>
+        <v>0.24084069361777702</v>
+      </c>
+      <c r="H10" s="9">
+        <f>AVERAGE(Collated_Data!H26:H28,Collated_Data!H32:H34)</f>
+        <v>99992</v>
+      </c>
+      <c r="I10" s="9">
+        <f>AVERAGE(Collated_Data!I26:I28,Collated_Data!I32:I34)</f>
+        <v>0.29654210665919623</v>
+      </c>
+      <c r="J10" s="9">
+        <f>AVERAGE(Collated_Data!J26:J28,Collated_Data!J32:J34)</f>
+        <v>4.754332325841501E-2</v>
+      </c>
+      <c r="K10" s="9">
+        <f>AVERAGE(Collated_Data!K26:K28,Collated_Data!K32:K34)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <f>AVERAGE(Collated_Data!L26:L28,Collated_Data!L32:L34)</f>
+        <v>0.35313883886378483</v>
+      </c>
+      <c r="M10" s="9">
+        <f>AVERAGE(Collated_Data!M26:M28,Collated_Data!M32:M34)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
+        <f>AVERAGE(Collated_Data!N26:N28,Collated_Data!N32:N34)</f>
+        <v>0.16788398272890889</v>
+      </c>
+      <c r="O10" s="9">
+        <f>AVERAGE(Collated_Data!O26:O28,Collated_Data!O32:O34)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
+        <f>AVERAGE(Collated_Data!P26:P28,Collated_Data!P32:P34)</f>
+        <v>0.16962931721656829</v>
+      </c>
+      <c r="Q10" s="9">
+        <f>AVERAGE(Collated_Data!Q26:Q28,Collated_Data!Q32:Q34)</f>
+        <v>9.1826806388684734E-2</v>
+      </c>
+      <c r="R10" s="9">
+        <f>AVERAGE(Collated_Data!R26:R28,Collated_Data!R32:R34)</f>
+        <v>1.2588817464492372</v>
+      </c>
+      <c r="S10" s="9">
+        <f>AVERAGE(Collated_Data!S26:S28,Collated_Data!S32:S34)</f>
+        <v>0.50676855549650079</v>
+      </c>
+      <c r="T10" s="9">
+        <f>AVERAGE(Collated_Data!T26:T28,Collated_Data!T32:T34)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="9">
+        <f>AVERAGE(Collated_Data!U26:U28,Collated_Data!U32:U34)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="9">
+        <f>AVERAGE(Collated_Data!V26:V28,Collated_Data!V32:V34)</f>
+        <v>0.46606691176470588</v>
+      </c>
+      <c r="W10" s="9">
+        <f>AVERAGE(Collated_Data!W26:W28,Collated_Data!W32:W34)</f>
+        <v>0.81777952074708471</v>
+      </c>
+      <c r="X10" s="9">
+        <f>AVERAGE(Collated_Data!X26:X28,Collated_Data!X32:X34)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <f>AVERAGE(Collated_Data!Y26:Y28,Collated_Data!Y32:Y34)</f>
+        <v>2.4532680840287346</v>
+      </c>
+      <c r="Z10" s="9">
+        <f>AVERAGE(Collated_Data!Z26:Z28,Collated_Data!Z32:Z34)</f>
+        <v>26.904457375884324</v>
+      </c>
+      <c r="AA10" s="9">
+        <f>AVERAGE(Collated_Data!AA26:AA28,Collated_Data!AA32:AA34)</f>
+        <v>2.6012686700353118</v>
+      </c>
+      <c r="AB10" s="9">
+        <f>AVERAGE(Collated_Data!AB26:AB28,Collated_Data!AB32:AB34)</f>
+        <v>27.145298069502093</v>
+      </c>
+      <c r="AC10" s="9">
+        <f>AVERAGE(Collated_Data!AC26:AC28,Collated_Data!AC32:AC34)</f>
+        <v>9.613539088484703E-2</v>
+      </c>
+      <c r="AD10" s="9">
+        <f>AVERAGE(Collated_Data!AD26:AD28,Collated_Data!AD32:AD34)</f>
+        <v>0.7978226140336222</v>
+      </c>
+      <c r="AE10" s="10">
+        <f>AVERAGE(Collated_Data!AE26:AE28,Collated_Data!AE32:AE34)</f>
+        <v>21.39833333333333</v>
+      </c>
+      <c r="AF10" s="10">
+        <f>AVERAGE(Collated_Data!AF26:AF28,Collated_Data!AF32:AF34)</f>
+        <v>30.848333333333333</v>
+      </c>
+      <c r="AG10" s="10">
+        <f>AVERAGE(Collated_Data!AG26:AG28,Collated_Data!AG32:AG34)</f>
+        <v>0.54333333333333333</v>
+      </c>
+      <c r="AH10" s="10">
+        <f>AVERAGE(Collated_Data!AH26:AH28,Collated_Data!AH32:AH34)</f>
+        <v>8982.2033333333329</v>
+      </c>
+      <c r="AI10" s="10">
+        <f>AVERAGE(Collated_Data!AI26:AI28,Collated_Data!AI32:AI34)</f>
+        <v>320.83333333333331</v>
+      </c>
+      <c r="AJ10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ26:AJ28,Collated_Data!AJ32:AJ34)</f>
+        <v>4.0424590502816677</v>
+      </c>
+      <c r="AK10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK26:AK28,Collated_Data!AK32:AK34)</f>
+        <v>0.43499580181834552</v>
+      </c>
+      <c r="AL10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL26:AL28,Collated_Data!AL32:AL34)</f>
+        <v>0.43605084735049643</v>
+      </c>
+      <c r="AM10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM26:AM28,Collated_Data!AM32:AM34)</f>
+        <v>0.36609149997195378</v>
+      </c>
+      <c r="AN10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN26:AN28,Collated_Data!AN32:AN34)</f>
+        <v>0.64828030225932187</v>
+      </c>
+      <c r="AO10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO26:AO28,Collated_Data!AO32:AO34)</f>
+        <v>0.58323649001869338</v>
+      </c>
+      <c r="AP10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP26:AP28,Collated_Data!AP32:AP34)</f>
+        <v>0.40667177402592114</v>
+      </c>
+      <c r="AQ10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ26:AQ28,Collated_Data!AQ32:AQ34)</f>
+        <v>0.51813038599772754</v>
+      </c>
+      <c r="AR10" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR26:AR28,Collated_Data!AR32:AR34)</f>
+        <v>0.64900194883920859</v>
+      </c>
+      <c r="AS10" s="7">
+        <f>AVERAGE(Collated_Data!AS26:AS28,Collated_Data!AS32:AS34)</f>
+        <v>0.15666666666666665</v>
+      </c>
+      <c r="AT10" s="7">
+        <f>AVERAGE(Collated_Data!AT26:AT28,Collated_Data!AT32:AT34)</f>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="7">
+        <f>AVERAGE(Collated_Data!AU26:AU28,Collated_Data!AU32:AU34)</f>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="10">
+        <f>AVERAGE(Collated_Data!AV26:AV28,Collated_Data!AV32:AV34)</f>
+        <v>10</v>
+      </c>
+      <c r="AW10" s="10">
+        <f>AVERAGE(Collated_Data!AW26:AW28,Collated_Data!AW32:AW34)</f>
+        <v>9</v>
+      </c>
+      <c r="AX10" s="18">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="AY10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="18">
+        <v>40.54</v>
+      </c>
+      <c r="BA10" s="18">
+        <v>1.01</v>
+      </c>
+      <c r="BB10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A11" s="6">
+        <v>44793</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="10">
+        <f>AVERAGE(Collated_Data!D29:D31,Collated_Data!D35:D37)</f>
+        <v>413.33333333333331</v>
+      </c>
+      <c r="E11" s="10">
+        <f>AVERAGE(Collated_Data!E29:E31,Collated_Data!E35:E37)</f>
+        <v>2314.6666666666665</v>
+      </c>
+      <c r="F11" s="10">
+        <f>AVERAGE(Collated_Data!F29:F31,Collated_Data!F35:F37)</f>
+        <v>6.6123038437519464</v>
+      </c>
+      <c r="G11" s="9">
+        <f>AVERAGE(Collated_Data!G29:G31,Collated_Data!G35:G37)</f>
+        <v>0.1121074683638572</v>
+      </c>
+      <c r="H11" s="9">
+        <f>AVERAGE(Collated_Data!H29:H31,Collated_Data!H35:H37)</f>
+        <v>296687.5</v>
+      </c>
+      <c r="I11" s="9">
+        <f>AVERAGE(Collated_Data!I29:I31,Collated_Data!I35:I37)</f>
+        <v>8.0258289099858812E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <f>AVERAGE(Collated_Data!J29:J31,Collated_Data!J35:J37)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <f>AVERAGE(Collated_Data!K29:K31,Collated_Data!K35:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <f>AVERAGE(Collated_Data!L29:L31,Collated_Data!L35:L37)</f>
+        <v>1.2003089560871016</v>
+      </c>
+      <c r="M11" s="9">
+        <f>AVERAGE(Collated_Data!M29:M31,Collated_Data!M35:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <f>AVERAGE(Collated_Data!N29:N31,Collated_Data!N35:N37)</f>
+        <v>9.3628147181158014E-2</v>
+      </c>
+      <c r="O11" s="9">
+        <f>AVERAGE(Collated_Data!O29:O31,Collated_Data!O35:O37)</f>
+        <v>7.025488799037255E-2</v>
+      </c>
+      <c r="P11" s="9">
+        <f>AVERAGE(Collated_Data!P29:P31,Collated_Data!P35:P37)</f>
+        <v>0.27432324453929308</v>
+      </c>
+      <c r="Q11" s="9">
+        <f>AVERAGE(Collated_Data!Q29:Q31,Collated_Data!Q35:Q37)</f>
+        <v>8.9730441290203411E-2</v>
+      </c>
+      <c r="R11" s="9">
+        <f>AVERAGE(Collated_Data!R29:R31,Collated_Data!R35:R37)</f>
+        <v>1.0597912677538137</v>
+      </c>
+      <c r="S11" s="9">
+        <f>AVERAGE(Collated_Data!S29:S31,Collated_Data!S35:S37)</f>
+        <v>0.20472333700528822</v>
+      </c>
+      <c r="T11" s="9">
+        <f>AVERAGE(Collated_Data!T29:T31,Collated_Data!T35:T37)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="9">
+        <f>AVERAGE(Collated_Data!U29:U31,Collated_Data!U35:U37)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="9">
+        <f>AVERAGE(Collated_Data!V29:V31,Collated_Data!V35:V37)</f>
+        <v>0.16154806149732617</v>
+      </c>
+      <c r="W11" s="9">
+        <f>AVERAGE(Collated_Data!W29:W31,Collated_Data!W35:W37)</f>
+        <v>0.9997509520273048</v>
+      </c>
+      <c r="X11" s="9">
+        <f>AVERAGE(Collated_Data!X29:X31,Collated_Data!X35:X37)</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
+        <f>AVERAGE(Collated_Data!Y29:Y31,Collated_Data!Y35:Y37)</f>
+        <v>1.1220637812930443</v>
+      </c>
+      <c r="Z11" s="9">
+        <f>AVERAGE(Collated_Data!Z29:Z31,Collated_Data!Z35:Z37)</f>
+        <v>28.391768839645575</v>
+      </c>
+      <c r="AA11" s="9">
+        <f>AVERAGE(Collated_Data!AA29:AA31,Collated_Data!AA35:AA37)</f>
+        <v>3.164370301367192</v>
+      </c>
+      <c r="AB11" s="9">
+        <f>AVERAGE(Collated_Data!AB29:AB31,Collated_Data!AB35:AB37)</f>
+        <v>28.503876308009428</v>
+      </c>
+      <c r="AC11" s="9">
+        <f>AVERAGE(Collated_Data!AC29:AC31,Collated_Data!AC35:AC37)</f>
+        <v>7.0336163964881793E-2</v>
+      </c>
+      <c r="AD11" s="9">
+        <f>AVERAGE(Collated_Data!AD29:AD31,Collated_Data!AD35:AD37)</f>
+        <v>0.89216613174567172</v>
+      </c>
+      <c r="AE11" s="10">
+        <f>AVERAGE(Collated_Data!AE29:AE31,Collated_Data!AE35:AE37)</f>
+        <v>1217.1949999999999</v>
+      </c>
+      <c r="AF11" s="10">
+        <f>AVERAGE(Collated_Data!AF29:AF31,Collated_Data!AF35:AF37)</f>
+        <v>441.94</v>
+      </c>
+      <c r="AG11" s="10">
+        <f>AVERAGE(Collated_Data!AG29:AG31,Collated_Data!AG35:AG37)</f>
+        <v>13.63666666666667</v>
+      </c>
+      <c r="AH11" s="10">
+        <f>AVERAGE(Collated_Data!AH29:AH31,Collated_Data!AH35:AH37)</f>
+        <v>7769.0683333333327</v>
+      </c>
+      <c r="AI11" s="10">
+        <f>AVERAGE(Collated_Data!AI29:AI31,Collated_Data!AI35:AI37)</f>
+        <v>1618.3333333333333</v>
+      </c>
+      <c r="AJ11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ29:AJ31,Collated_Data!AJ35:AJ37)</f>
+        <v>4.2425486016477896</v>
+      </c>
+      <c r="AK11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK29:AK31,Collated_Data!AK35:AK37)</f>
+        <v>0.74317805875784826</v>
+      </c>
+      <c r="AL11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL29:AL31,Collated_Data!AL35:AL37)</f>
+        <v>0.59560263721849316</v>
+      </c>
+      <c r="AM11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM29:AM31,Collated_Data!AM35:AM37)</f>
+        <v>0.38020363937787249</v>
+      </c>
+      <c r="AN11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN29:AN31,Collated_Data!AN35:AN37)</f>
+        <v>0.45582163212777066</v>
+      </c>
+      <c r="AO11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO29:AO31,Collated_Data!AO35:AO37)</f>
+        <v>0.42944381424788741</v>
+      </c>
+      <c r="AP11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP29:AP31,Collated_Data!AP35:AP37)</f>
+        <v>0.4873580543333646</v>
+      </c>
+      <c r="AQ11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ29:AQ31,Collated_Data!AQ35:AQ37)</f>
+        <v>0.67931379350344034</v>
+      </c>
+      <c r="AR11" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR29:AR31,Collated_Data!AR35:AR37)</f>
+        <v>0.47162697208111187</v>
+      </c>
+      <c r="AS11" s="7">
+        <f>AVERAGE(Collated_Data!AS29:AS31,Collated_Data!AS35:AS37)</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="7">
+        <f>AVERAGE(Collated_Data!AT29:AT31,Collated_Data!AT35:AT37)</f>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="7">
+        <f>AVERAGE(Collated_Data!AU29:AU31,Collated_Data!AU35:AU37)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="10">
+        <f>AVERAGE(Collated_Data!AV29:AV31,Collated_Data!AV35:AV37)</f>
+        <v>10</v>
+      </c>
+      <c r="AW11" s="10">
+        <f>AVERAGE(Collated_Data!AW29:AW31,Collated_Data!AW35:AW37)</f>
+        <v>9</v>
+      </c>
+      <c r="AX11" s="18">
+        <v>118.13</v>
+      </c>
+      <c r="AY11" s="18">
+        <v>30.96</v>
+      </c>
+      <c r="AZ11" s="18">
+        <v>437.18</v>
+      </c>
+      <c r="BA11" s="18">
+        <v>4.28</v>
+      </c>
+      <c r="BB11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A12" s="6">
+        <v>44799</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="10">
+        <f>AVERAGE(Collated_Data!D32:D34,Collated_Data!D38:D40)</f>
+        <v>413.33333333333331</v>
+      </c>
+      <c r="E12" s="10">
+        <f>AVERAGE(Collated_Data!E32:E34,Collated_Data!E38:E40)</f>
+        <v>2548</v>
+      </c>
+      <c r="F12" s="10">
+        <f>AVERAGE(Collated_Data!F32:F34,Collated_Data!F38:F40)</f>
+        <v>7.1906224163380985</v>
+      </c>
+      <c r="G12" s="9">
+        <f>AVERAGE(Collated_Data!G32:G34,Collated_Data!G38:G40)</f>
+        <v>0.25596889088753061</v>
+      </c>
+      <c r="H12" s="9">
+        <f>AVERAGE(Collated_Data!H32:H34,Collated_Data!H38:H40)</f>
+        <v>170237.5</v>
+      </c>
+      <c r="I12" s="9">
+        <f>AVERAGE(Collated_Data!I32:I34,Collated_Data!I38:I40)</f>
+        <v>7.5522715829924633E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <f>AVERAGE(Collated_Data!J32:J34,Collated_Data!J38:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <f>AVERAGE(Collated_Data!K32:K34,Collated_Data!K38:K40)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <f>AVERAGE(Collated_Data!L32:L34,Collated_Data!L38:L40)</f>
+        <v>0.3856862101555924</v>
+      </c>
+      <c r="M12" s="9">
+        <f>AVERAGE(Collated_Data!M32:M34,Collated_Data!M38:M40)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <f>AVERAGE(Collated_Data!N32:N34,Collated_Data!N38:N40)</f>
+        <v>0.1213990976646885</v>
+      </c>
+      <c r="O12" s="9">
+        <f>AVERAGE(Collated_Data!O32:O34,Collated_Data!O38:O40)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="9">
+        <f>AVERAGE(Collated_Data!P32:P34,Collated_Data!P38:P40)</f>
+        <v>0.12118556070568487</v>
+      </c>
+      <c r="Q12" s="9">
+        <f>AVERAGE(Collated_Data!Q32:Q34,Collated_Data!Q38:Q40)</f>
+        <v>0.10508224989130309</v>
+      </c>
+      <c r="R12" s="9">
+        <f>AVERAGE(Collated_Data!R32:R34,Collated_Data!R38:R40)</f>
+        <v>1.2351514992109414</v>
+      </c>
+      <c r="S12" s="9">
+        <f>AVERAGE(Collated_Data!S32:S34,Collated_Data!S38:S40)</f>
+        <v>0.50839412299168318</v>
+      </c>
+      <c r="T12" s="9">
+        <f>AVERAGE(Collated_Data!T32:T34,Collated_Data!T38:T40)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="9">
+        <f>AVERAGE(Collated_Data!U32:U34,Collated_Data!U38:U40)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="9">
+        <f>AVERAGE(Collated_Data!V32:V34,Collated_Data!V38:V40)</f>
+        <v>0.35266440508021391</v>
+      </c>
+      <c r="W12" s="9">
+        <f>AVERAGE(Collated_Data!W32:W34,Collated_Data!W38:W40)</f>
+        <v>0.87578530401668642</v>
+      </c>
+      <c r="X12" s="9">
+        <f>AVERAGE(Collated_Data!X32:X34,Collated_Data!X38:X40)</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <f>AVERAGE(Collated_Data!Y32:Y34,Collated_Data!Y38:Y40)</f>
+        <v>1.9085523758933149</v>
+      </c>
+      <c r="Z12" s="9">
+        <f>AVERAGE(Collated_Data!Z32:Z34,Collated_Data!Z38:Z40)</f>
+        <v>25.726537502620932</v>
+      </c>
+      <c r="AA12" s="9">
+        <f>AVERAGE(Collated_Data!AA32:AA34,Collated_Data!AA38:AA40)</f>
+        <v>2.6570098177658292</v>
+      </c>
+      <c r="AB12" s="9">
+        <f>AVERAGE(Collated_Data!AB32:AB34,Collated_Data!AB38:AB40)</f>
+        <v>25.982506393508469</v>
+      </c>
+      <c r="AC12" s="9">
+        <f>AVERAGE(Collated_Data!AC32:AC34,Collated_Data!AC38:AC40)</f>
+        <v>7.8316171755610814E-2</v>
+      </c>
+      <c r="AD12" s="9">
+        <f>AVERAGE(Collated_Data!AD32:AD34,Collated_Data!AD38:AD40)</f>
+        <v>0.80088887016333965</v>
+      </c>
+      <c r="AE12" s="10">
+        <f>AVERAGE(Collated_Data!AE32:AE34,Collated_Data!AE38:AE40)</f>
+        <v>19.133333333333333</v>
+      </c>
+      <c r="AF12" s="10">
+        <f>AVERAGE(Collated_Data!AF32:AF34,Collated_Data!AF38:AF40)</f>
+        <v>27.149999999999995</v>
+      </c>
+      <c r="AG12" s="10">
+        <f>AVERAGE(Collated_Data!AG32:AG34,Collated_Data!AG38:AG40)</f>
+        <v>7.2816666666666663</v>
+      </c>
+      <c r="AH12" s="10">
+        <f>AVERAGE(Collated_Data!AH32:AH34,Collated_Data!AH38:AH40)</f>
+        <v>8698.6966666666667</v>
+      </c>
+      <c r="AI12" s="10">
+        <f>AVERAGE(Collated_Data!AI32:AI34,Collated_Data!AI38:AI40)</f>
+        <v>288.16666666666669</v>
+      </c>
+      <c r="AJ12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ32:AJ34,Collated_Data!AJ38:AJ40)</f>
+        <v>3.8453521788499572</v>
+      </c>
+      <c r="AK12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK32:AK34,Collated_Data!AK38:AK40)</f>
+        <v>0.62144092417670305</v>
+      </c>
+      <c r="AL12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL32:AL34,Collated_Data!AL38:AL40)</f>
+        <v>0.3221318528509346</v>
+      </c>
+      <c r="AM12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM32:AM34,Collated_Data!AM38:AM40)</f>
+        <v>0.45749433724465144</v>
+      </c>
+      <c r="AN12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN32:AN34,Collated_Data!AN38:AN40)</f>
+        <v>0.56093547236531116</v>
+      </c>
+      <c r="AO12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO32:AO34,Collated_Data!AO38:AO40)</f>
+        <v>0.52317495250177959</v>
+      </c>
+      <c r="AP12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP32:AP34,Collated_Data!AP38:AP40)</f>
+        <v>0.48321294428040323</v>
+      </c>
+      <c r="AQ12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ32:AQ34,Collated_Data!AQ38:AQ40)</f>
+        <v>0.53642316349553087</v>
+      </c>
+      <c r="AR12" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR32:AR34,Collated_Data!AR38:AR40)</f>
+        <v>0.34053853193464362</v>
+      </c>
+      <c r="AS12" s="7">
+        <f>AVERAGE(Collated_Data!AS32:AS34,Collated_Data!AS38:AS40)</f>
+        <v>0.42333333333333334</v>
+      </c>
+      <c r="AT12" s="7">
+        <f>AVERAGE(Collated_Data!AT32:AT34,Collated_Data!AT38:AT40)</f>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="7">
+        <f>AVERAGE(Collated_Data!AU32:AU34,Collated_Data!AU38:AU40)</f>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="10">
+        <f>AVERAGE(Collated_Data!AV32:AV34,Collated_Data!AV38:AV40)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AW12" s="10">
+        <f>AVERAGE(Collated_Data!AW32:AW34,Collated_Data!AW38:AW40)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AX12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH12" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A13" s="6">
+        <v>44799</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="10">
+        <f>AVERAGE(Collated_Data!D35:D37,Collated_Data!D41:D43)</f>
+        <v>330</v>
+      </c>
+      <c r="E13" s="10">
+        <f>AVERAGE(Collated_Data!E35:E37,Collated_Data!E41:E43)</f>
+        <v>1921.3333333333333</v>
+      </c>
+      <c r="F13" s="10">
+        <f>AVERAGE(Collated_Data!F35:F37,Collated_Data!F41:F43)</f>
+        <v>6.8993618747694185</v>
+      </c>
+      <c r="G13" s="9">
+        <f>AVERAGE(Collated_Data!G35:G37,Collated_Data!G41:G43)</f>
+        <v>7.878353373853568E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f>AVERAGE(Collated_Data!H35:H37,Collated_Data!H41:H43)</f>
+        <v>201806.66666666666</v>
+      </c>
+      <c r="I13" s="9">
+        <f>AVERAGE(Collated_Data!I35:I37,Collated_Data!I41:I43)</f>
+        <v>7.6444979796332815E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <f>AVERAGE(Collated_Data!J35:J37,Collated_Data!J41:J43)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <f>AVERAGE(Collated_Data!K35:K37,Collated_Data!K41:K43)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <f>AVERAGE(Collated_Data!L35:L37,Collated_Data!L41:L43)</f>
+        <v>1.1512113875422598</v>
+      </c>
+      <c r="M13" s="9">
+        <f>AVERAGE(Collated_Data!M35:M37,Collated_Data!M41:M43)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="9">
+        <f>AVERAGE(Collated_Data!N35:N37,Collated_Data!N41:N43)</f>
+        <v>0.12130597196315283</v>
+      </c>
+      <c r="O13" s="9">
+        <f>AVERAGE(Collated_Data!O35:O37,Collated_Data!O41:O43)</f>
+        <v>0.10489149240429206</v>
+      </c>
+      <c r="P13" s="9">
+        <f>AVERAGE(Collated_Data!P35:P37,Collated_Data!P41:P43)</f>
+        <v>0.31609170276209075</v>
+      </c>
+      <c r="Q13" s="9">
+        <f>AVERAGE(Collated_Data!Q35:Q37,Collated_Data!Q41:Q43)</f>
+        <v>9.8356504692243441E-2</v>
+      </c>
+      <c r="R13" s="9">
+        <f>AVERAGE(Collated_Data!R35:R37,Collated_Data!R41:R43)</f>
+        <v>0.70755234087322461</v>
+      </c>
+      <c r="S13" s="9">
+        <f>AVERAGE(Collated_Data!S35:S37,Collated_Data!S41:S43)</f>
+        <v>0.23303143381425054</v>
+      </c>
+      <c r="T13" s="9">
+        <f>AVERAGE(Collated_Data!T35:T37,Collated_Data!T41:T43)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="9">
+        <f>AVERAGE(Collated_Data!U35:U37,Collated_Data!U41:U43)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="9">
+        <f>AVERAGE(Collated_Data!V35:V37,Collated_Data!V41:V43)</f>
+        <v>0.27957653743315508</v>
+      </c>
+      <c r="W13" s="9">
+        <f>AVERAGE(Collated_Data!W35:W37,Collated_Data!W41:W43)</f>
+        <v>1.019772256107196</v>
+      </c>
+      <c r="X13" s="9">
+        <f>AVERAGE(Collated_Data!X35:X37,Collated_Data!X41:X43)</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <f>AVERAGE(Collated_Data!Y35:Y37,Collated_Data!Y41:Y43)</f>
+        <v>1.6455000555909003</v>
+      </c>
+      <c r="Z13" s="9">
+        <f>AVERAGE(Collated_Data!Z35:Z37,Collated_Data!Z41:Z43)</f>
+        <v>24.746386480651704</v>
+      </c>
+      <c r="AA13" s="9">
+        <f>AVERAGE(Collated_Data!AA35:AA37,Collated_Data!AA41:AA43)</f>
+        <v>2.6485053089240074</v>
+      </c>
+      <c r="AB13" s="9">
+        <f>AVERAGE(Collated_Data!AB35:AB37,Collated_Data!AB41:AB43)</f>
+        <v>24.825170014390235</v>
+      </c>
+      <c r="AC13" s="9">
+        <f>AVERAGE(Collated_Data!AC35:AC37,Collated_Data!AC41:AC43)</f>
+        <v>6.8672016300602282E-2</v>
+      </c>
+      <c r="AD13" s="9">
+        <f>AVERAGE(Collated_Data!AD35:AD37,Collated_Data!AD41:AD43)</f>
+        <v>0.73332107041867001</v>
+      </c>
+      <c r="AE13" s="10">
+        <f>AVERAGE(Collated_Data!AE35:AE37,Collated_Data!AE41:AE43)</f>
+        <v>1262.8633333333332</v>
+      </c>
+      <c r="AF13" s="10">
+        <f>AVERAGE(Collated_Data!AF35:AF37,Collated_Data!AF41:AF43)</f>
+        <v>436.61499999999995</v>
+      </c>
+      <c r="AG13" s="10">
+        <f>AVERAGE(Collated_Data!AG35:AG37,Collated_Data!AG41:AG43)</f>
+        <v>21.828333333333333</v>
+      </c>
+      <c r="AH13" s="10">
+        <f>AVERAGE(Collated_Data!AH35:AH37,Collated_Data!AH41:AH43)</f>
+        <v>6953.6166666666677</v>
+      </c>
+      <c r="AI13" s="10">
+        <f>AVERAGE(Collated_Data!AI35:AI37,Collated_Data!AI41:AI43)</f>
+        <v>1663.3333333333333</v>
+      </c>
+      <c r="AJ13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ35:AJ37,Collated_Data!AJ41:AJ43)</f>
+        <v>4.3259143724984241</v>
+      </c>
+      <c r="AK13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK35:AK37,Collated_Data!AK41:AK43)</f>
+        <v>0.64707158125557174</v>
+      </c>
+      <c r="AL13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL35:AL37,Collated_Data!AL41:AL43)</f>
+        <v>0.48438160993352269</v>
+      </c>
+      <c r="AM13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM35:AM37,Collated_Data!AM41:AM43)</f>
+        <v>0.40516553122879334</v>
+      </c>
+      <c r="AN13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN35:AN37,Collated_Data!AN41:AN43)</f>
+        <v>0.62749844950536449</v>
+      </c>
+      <c r="AO13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO35:AO37,Collated_Data!AO41:AO43)</f>
+        <v>0.49946774425669621</v>
+      </c>
+      <c r="AP13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP35:AP37,Collated_Data!AP41:AP43)</f>
+        <v>0.50618882977209212</v>
+      </c>
+      <c r="AQ13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ35:AQ37,Collated_Data!AQ41:AQ43)</f>
+        <v>0.55414313675395155</v>
+      </c>
+      <c r="AR13" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR35:AR37,Collated_Data!AR41:AR43)</f>
+        <v>0.60199748979243195</v>
+      </c>
+      <c r="AS13" s="7">
+        <f>AVERAGE(Collated_Data!AS35:AS37,Collated_Data!AS41:AS43)</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="7">
+        <f>AVERAGE(Collated_Data!AT35:AT37,Collated_Data!AT41:AT43)</f>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="7">
+        <f>AVERAGE(Collated_Data!AU35:AU37,Collated_Data!AU41:AU43)</f>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="10">
+        <f>AVERAGE(Collated_Data!AV35:AV37,Collated_Data!AV41:AV43)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AW13" s="10">
+        <f>AVERAGE(Collated_Data!AW35:AW37,Collated_Data!AW41:AW43)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AX13" s="18">
+        <v>45.76</v>
+      </c>
+      <c r="AY13" s="18">
+        <v>20.18</v>
+      </c>
+      <c r="AZ13" s="18">
+        <v>190.63</v>
+      </c>
+      <c r="BA13" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A14" s="6">
+        <v>44810</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="10">
+        <f>AVERAGE(Collated_Data!D38:D40,Collated_Data!D44:D46)</f>
+        <v>436.66666666666669</v>
+      </c>
+      <c r="E14" s="10">
+        <f>AVERAGE(Collated_Data!E38:E40,Collated_Data!E44:E46)</f>
+        <v>2718</v>
+      </c>
+      <c r="F14" s="10">
+        <f>AVERAGE(Collated_Data!F38:F40,Collated_Data!F44:F46)</f>
+        <v>7.247588118523681</v>
+      </c>
+      <c r="G14" s="9">
+        <f>AVERAGE(Collated_Data!G38:G40,Collated_Data!G44:G46)</f>
+        <v>0.13217580185950062</v>
+      </c>
+      <c r="H14" s="9">
+        <f>AVERAGE(Collated_Data!H38:H40,Collated_Data!H44:H46)</f>
+        <v>178893.83333333334</v>
+      </c>
+      <c r="I14" s="9">
+        <f>AVERAGE(Collated_Data!I38:I40,Collated_Data!I44:I46)</f>
+        <v>6.8811389874283577E-2</v>
+      </c>
+      <c r="J14" s="9">
+        <f>AVERAGE(Collated_Data!J38:J40,Collated_Data!J44:J46)</f>
+        <v>4.2425170430336612E-2</v>
+      </c>
+      <c r="K14" s="9">
+        <f>AVERAGE(Collated_Data!K38:K40,Collated_Data!K44:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <f>AVERAGE(Collated_Data!L38:L40,Collated_Data!L44:L46)</f>
+        <v>0.51205480766065892</v>
+      </c>
+      <c r="M14" s="9">
+        <f>AVERAGE(Collated_Data!M38:M40,Collated_Data!M44:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <f>AVERAGE(Collated_Data!N38:N40,Collated_Data!N44:N46)</f>
+        <v>0.10815034233574849</v>
+      </c>
+      <c r="O14" s="9">
+        <f>AVERAGE(Collated_Data!O38:O40,Collated_Data!O44:O46)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="9">
+        <f>AVERAGE(Collated_Data!P38:P40,Collated_Data!P44:P46)</f>
+        <v>0.1281264998755815</v>
+      </c>
+      <c r="Q14" s="9">
+        <f>AVERAGE(Collated_Data!Q38:Q40,Collated_Data!Q44:Q46)</f>
+        <v>0.11727280230245056</v>
+      </c>
+      <c r="R14" s="9">
+        <f>AVERAGE(Collated_Data!R38:R40,Collated_Data!R44:R46)</f>
+        <v>1.626702367175171</v>
+      </c>
+      <c r="S14" s="9">
+        <f>AVERAGE(Collated_Data!S38:S40,Collated_Data!S44:S46)</f>
+        <v>0.41182485814476216</v>
+      </c>
+      <c r="T14" s="9">
+        <f>AVERAGE(Collated_Data!T38:T40,Collated_Data!T44:T46)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <f>AVERAGE(Collated_Data!U38:U40,Collated_Data!U44:U46)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <f>AVERAGE(Collated_Data!V38:V40,Collated_Data!V44:V46)</f>
+        <v>0.30675741978609633</v>
+      </c>
+      <c r="W14" s="9">
+        <f>AVERAGE(Collated_Data!W38:W40,Collated_Data!W44:W46)</f>
+        <v>0.74316533277502128</v>
+      </c>
+      <c r="X14" s="9">
+        <f>AVERAGE(Collated_Data!X38:X40,Collated_Data!X44:X46)</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <f>AVERAGE(Collated_Data!Y38:Y40,Collated_Data!Y44:Y46)</f>
+        <v>1.6170209824765129</v>
+      </c>
+      <c r="Z14" s="9">
+        <f>AVERAGE(Collated_Data!Z38:Z40,Collated_Data!Z44:Z46)</f>
+        <v>26.27619919469446</v>
+      </c>
+      <c r="AA14" s="9">
+        <f>AVERAGE(Collated_Data!AA38:AA40,Collated_Data!AA44:AA46)</f>
+        <v>2.6551030269050488</v>
+      </c>
+      <c r="AB14" s="9">
+        <f>AVERAGE(Collated_Data!AB38:AB40,Collated_Data!AB44:AB46)</f>
+        <v>26.40837499655396</v>
+      </c>
+      <c r="AC14" s="9">
+        <f>AVERAGE(Collated_Data!AC38:AC40,Collated_Data!AC44:AC46)</f>
+        <v>0.1277443202588919</v>
+      </c>
+      <c r="AD14" s="9">
+        <f>AVERAGE(Collated_Data!AD38:AD40,Collated_Data!AD44:AD46)</f>
+        <v>0.85594165582904791</v>
+      </c>
+      <c r="AE14" s="10">
+        <f>AVERAGE(Collated_Data!AE38:AE40,Collated_Data!AE44:AE46)</f>
+        <v>22.436666666666667</v>
+      </c>
+      <c r="AF14" s="10">
+        <f>AVERAGE(Collated_Data!AF38:AF40,Collated_Data!AF44:AF46)</f>
+        <v>35.683333333333337</v>
+      </c>
+      <c r="AG14" s="10">
+        <f>AVERAGE(Collated_Data!AG38:AG40,Collated_Data!AG44:AG46)</f>
+        <v>7.0733333333333333</v>
+      </c>
+      <c r="AH14" s="10">
+        <f>AVERAGE(Collated_Data!AH38:AH40,Collated_Data!AH44:AH46)</f>
+        <v>8125.44</v>
+      </c>
+      <c r="AI14" s="10">
+        <f>AVERAGE(Collated_Data!AI38:AI40,Collated_Data!AI44:AI46)</f>
+        <v>283.5</v>
+      </c>
+      <c r="AJ14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ38:AJ40,Collated_Data!AJ44:AJ46)</f>
+        <v>3.8331456657000778</v>
+      </c>
+      <c r="AK14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK38:AK40,Collated_Data!AK44:AK46)</f>
+        <v>0.58256104529037289</v>
+      </c>
+      <c r="AL14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL38:AL40,Collated_Data!AL44:AL46)</f>
+        <v>0.16966708540063413</v>
+      </c>
+      <c r="AM14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM38:AM40,Collated_Data!AM44:AM46)</f>
+        <v>0.44200976878371706</v>
+      </c>
+      <c r="AN14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN38:AN40,Collated_Data!AN44:AN46)</f>
+        <v>0.66737554320935588</v>
+      </c>
+      <c r="AO14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO38:AO40,Collated_Data!AO44:AO46)</f>
+        <v>0.52404219012176456</v>
+      </c>
+      <c r="AP14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP38:AP40,Collated_Data!AP44:AP46)</f>
+        <v>0.54494651099433356</v>
+      </c>
+      <c r="AQ14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ38:AQ40,Collated_Data!AQ44:AQ46)</f>
+        <v>0.59666653659898483</v>
+      </c>
+      <c r="AR14" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR38:AR40,Collated_Data!AR44:AR46)</f>
+        <v>0.30587698530091501</v>
+      </c>
+      <c r="AS14" s="7">
+        <f>AVERAGE(Collated_Data!AS38:AS40,Collated_Data!AS44:AS46)</f>
+        <v>9.9566666666666652</v>
+      </c>
+      <c r="AT14" s="7">
+        <f>AVERAGE(Collated_Data!AT38:AT40,Collated_Data!AT44:AT46)</f>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="7">
+        <f>AVERAGE(Collated_Data!AU38:AU40,Collated_Data!AU44:AU46)</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="10">
+        <f>AVERAGE(Collated_Data!AV38:AV40,Collated_Data!AV44:AV46)</f>
+        <v>6</v>
+      </c>
+      <c r="AW14" s="10">
+        <f>AVERAGE(Collated_Data!AW38:AW40,Collated_Data!AW44:AW46)</f>
+        <v>5</v>
+      </c>
+      <c r="AX14" s="18">
+        <v>17.34</v>
+      </c>
+      <c r="AY14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="18">
+        <v>329.08</v>
+      </c>
+      <c r="BA14" s="18">
+        <v>0.36</v>
+      </c>
+      <c r="BB14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="18">
+        <v>27.92</v>
+      </c>
+      <c r="BG14" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A15" s="6">
+        <v>44810</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="10">
+        <f>AVERAGE(Collated_Data!D41:D43,Collated_Data!D47:D49)</f>
+        <v>243.33333333333334</v>
+      </c>
+      <c r="E15" s="10">
+        <f>AVERAGE(Collated_Data!E41:E43,Collated_Data!E47:E49)</f>
+        <v>1608</v>
+      </c>
+      <c r="F15" s="10">
+        <f>AVERAGE(Collated_Data!F41:F43,Collated_Data!F47:F49)</f>
+        <v>7.6788417086202463</v>
+      </c>
+      <c r="G15" s="9">
+        <f>AVERAGE(Collated_Data!G41:G43,Collated_Data!G47:G49)</f>
+        <v>9.9351053774282092E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <f>AVERAGE(Collated_Data!H41:H43,Collated_Data!H47:H49)</f>
+        <v>158156.83333333334</v>
+      </c>
+      <c r="I15" s="9">
+        <f>AVERAGE(Collated_Data!I41:I43,Collated_Data!I47:I49)</f>
+        <v>7.621041555054113E-2</v>
+      </c>
+      <c r="J15" s="9">
+        <f>AVERAGE(Collated_Data!J41:J43,Collated_Data!J47:J49)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <f>AVERAGE(Collated_Data!K41:K43,Collated_Data!K47:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <f>AVERAGE(Collated_Data!L41:L43,Collated_Data!L47:L49)</f>
+        <v>1.0649998166181565</v>
+      </c>
+      <c r="M15" s="9">
+        <f>AVERAGE(Collated_Data!M41:M43,Collated_Data!M47:M49)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <f>AVERAGE(Collated_Data!N41:N43,Collated_Data!N47:N49)</f>
+        <v>0.17278282777248263</v>
+      </c>
+      <c r="O15" s="9">
+        <f>AVERAGE(Collated_Data!O41:O43,Collated_Data!O47:O49)</f>
+        <v>0.16490004900998159</v>
+      </c>
+      <c r="P15" s="9">
+        <f>AVERAGE(Collated_Data!P41:P43,Collated_Data!P47:P49)</f>
+        <v>0.3008416310632932</v>
+      </c>
+      <c r="Q15" s="9">
+        <f>AVERAGE(Collated_Data!Q41:Q43,Collated_Data!Q47:Q49)</f>
+        <v>0.11109064167727982</v>
+      </c>
+      <c r="R15" s="9">
+        <f>AVERAGE(Collated_Data!R41:R43,Collated_Data!R47:R49)</f>
+        <v>0.55703661230931079</v>
+      </c>
+      <c r="S15" s="9">
+        <f>AVERAGE(Collated_Data!S41:S43,Collated_Data!S47:S49)</f>
+        <v>0.27684047780941667</v>
+      </c>
+      <c r="T15" s="9">
+        <f>AVERAGE(Collated_Data!T41:T43,Collated_Data!T47:T49)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="9">
+        <f>AVERAGE(Collated_Data!U41:U43,Collated_Data!U47:U49)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="9">
+        <f>AVERAGE(Collated_Data!V41:V43,Collated_Data!V47:V49)</f>
+        <v>0.36449640708556147</v>
+      </c>
+      <c r="W15" s="9">
+        <f>AVERAGE(Collated_Data!W41:W43,Collated_Data!W47:W49)</f>
+        <v>0.72351181145909049</v>
+      </c>
+      <c r="X15" s="9">
+        <f>AVERAGE(Collated_Data!X41:X43,Collated_Data!X47:X49)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <f>AVERAGE(Collated_Data!Y41:Y43,Collated_Data!Y47:Y49)</f>
+        <v>1.3544771366980244</v>
+      </c>
+      <c r="Z15" s="9">
+        <f>AVERAGE(Collated_Data!Z41:Z43,Collated_Data!Z47:Z49)</f>
+        <v>18.822063315886343</v>
+      </c>
+      <c r="AA15" s="9">
+        <f>AVERAGE(Collated_Data!AA41:AA43,Collated_Data!AA47:AA49)</f>
+        <v>1.9677507530697387</v>
+      </c>
+      <c r="AB15" s="9">
+        <f>AVERAGE(Collated_Data!AB41:AB43,Collated_Data!AB47:AB49)</f>
+        <v>18.921414369660624</v>
+      </c>
+      <c r="AC15" s="9">
+        <f>AVERAGE(Collated_Data!AC41:AC43,Collated_Data!AC47:AC49)</f>
+        <v>6.1546303898360959E-2</v>
+      </c>
+      <c r="AD15" s="9">
+        <f>AVERAGE(Collated_Data!AD41:AD43,Collated_Data!AD47:AD49)</f>
+        <v>0.47191955752687526</v>
+      </c>
+      <c r="AE15" s="10">
+        <f>AVERAGE(Collated_Data!AE41:AE43,Collated_Data!AE47:AE49)</f>
+        <v>1278.1916666666666</v>
+      </c>
+      <c r="AF15" s="10">
+        <f>AVERAGE(Collated_Data!AF41:AF43,Collated_Data!AF47:AF49)</f>
+        <v>414.76833333333337</v>
+      </c>
+      <c r="AG15" s="10">
+        <f>AVERAGE(Collated_Data!AG41:AG43,Collated_Data!AG47:AG49)</f>
+        <v>51.705000000000005</v>
+      </c>
+      <c r="AH15" s="10">
+        <f>AVERAGE(Collated_Data!AH41:AH43,Collated_Data!AH47:AH49)</f>
+        <v>5613.6916666666666</v>
+      </c>
+      <c r="AI15" s="10">
+        <f>AVERAGE(Collated_Data!AI41:AI43,Collated_Data!AI47:AI49)</f>
+        <v>1676.1666666666667</v>
+      </c>
+      <c r="AJ15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ41:AJ43,Collated_Data!AJ47:AJ49)</f>
+        <v>4.223316655618806</v>
+      </c>
+      <c r="AK15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK41:AK43,Collated_Data!AK47:AK49)</f>
+        <v>0.56316075434682722</v>
+      </c>
+      <c r="AL15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL41:AL43,Collated_Data!AL47:AL49)</f>
+        <v>0.39575894309809501</v>
+      </c>
+      <c r="AM15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM41:AM43,Collated_Data!AM47:AM49)</f>
+        <v>0.53207948732486987</v>
+      </c>
+      <c r="AN15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN41:AN43,Collated_Data!AN47:AN49)</f>
+        <v>0.68555261422470026</v>
+      </c>
+      <c r="AO15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO41:AO43,Collated_Data!AO47:AO49)</f>
+        <v>0.44201195412764621</v>
+      </c>
+      <c r="AP15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP41:AP43,Collated_Data!AP47:AP49)</f>
+        <v>0.53653057630726764</v>
+      </c>
+      <c r="AQ15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ41:AQ43,Collated_Data!AQ47:AQ49)</f>
+        <v>0.47625242174755478</v>
+      </c>
+      <c r="AR15" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR41:AR43,Collated_Data!AR47:AR49)</f>
+        <v>0.59196990444184472</v>
+      </c>
+      <c r="AS15" s="7">
+        <f>AVERAGE(Collated_Data!AS41:AS43,Collated_Data!AS47:AS49)</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="7">
+        <f>AVERAGE(Collated_Data!AT41:AT43,Collated_Data!AT47:AT49)</f>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="7">
+        <f>AVERAGE(Collated_Data!AU41:AU43,Collated_Data!AU47:AU49)</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="10">
+        <f>AVERAGE(Collated_Data!AV41:AV43,Collated_Data!AV47:AV49)</f>
+        <v>6</v>
+      </c>
+      <c r="AW15" s="10">
+        <f>AVERAGE(Collated_Data!AW41:AW43,Collated_Data!AW47:AW49)</f>
+        <v>5</v>
+      </c>
+      <c r="AX15" s="18">
+        <v>36.82</v>
+      </c>
+      <c r="AY15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="18">
+        <v>98.72</v>
+      </c>
+      <c r="BA15" s="18">
+        <v>16.64</v>
+      </c>
+      <c r="BB15" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A16" s="6">
+        <v>44822</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="10">
+        <f>AVERAGE(Collated_Data!D44:D46,Collated_Data!D50:D52)</f>
+        <v>386.66666666666669</v>
+      </c>
+      <c r="E16" s="10">
+        <f>AVERAGE(Collated_Data!E44:E46,Collated_Data!E50:E52)</f>
+        <v>2281.3333333333335</v>
+      </c>
+      <c r="F16" s="10">
+        <f>AVERAGE(Collated_Data!F44:F46,Collated_Data!F50:F52)</f>
+        <v>6.6796797294787469</v>
+      </c>
+      <c r="G16" s="9">
+        <f>AVERAGE(Collated_Data!G44:G46,Collated_Data!G50:G52)</f>
+        <v>8.5821288016360894E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <f>AVERAGE(Collated_Data!H44:H46,Collated_Data!H50:H52)</f>
+        <v>108648.33333333333</v>
+      </c>
+      <c r="I16" s="9">
+        <f>AVERAGE(Collated_Data!I44:I46,Collated_Data!I50:I52)</f>
+        <v>0.17799694551678416</v>
+      </c>
+      <c r="J16" s="9">
+        <f>AVERAGE(Collated_Data!J44:J46,Collated_Data!J50:J52)</f>
+        <v>4.2425170430336612E-2</v>
+      </c>
+      <c r="K16" s="9">
+        <f>AVERAGE(Collated_Data!K44:K46,Collated_Data!K50:K52)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <f>AVERAGE(Collated_Data!L44:L46,Collated_Data!L50:L52)</f>
+        <v>0.5471941261384955</v>
+      </c>
+      <c r="M16" s="9">
+        <f>AVERAGE(Collated_Data!M44:M46,Collated_Data!M50:M52)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
+        <f>AVERAGE(Collated_Data!N44:N46,Collated_Data!N50:N52)</f>
+        <v>0.13963007802578647</v>
+      </c>
+      <c r="O16" s="9">
+        <f>AVERAGE(Collated_Data!O44:O46,Collated_Data!O50:O52)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="9">
+        <f>AVERAGE(Collated_Data!P44:P46,Collated_Data!P50:P52)</f>
+        <v>0.13385444089699414</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>AVERAGE(Collated_Data!Q44:Q46,Collated_Data!Q50:Q52)</f>
+        <v>0.1254176596882611</v>
+      </c>
+      <c r="R16" s="9">
+        <f>AVERAGE(Collated_Data!R44:R46,Collated_Data!R50:R52)</f>
+        <v>1.5509419253024725</v>
+      </c>
+      <c r="S16" s="9">
+        <f>AVERAGE(Collated_Data!S44:S46,Collated_Data!S50:S52)</f>
+        <v>0.52489996644763603</v>
+      </c>
+      <c r="T16" s="9">
+        <f>AVERAGE(Collated_Data!T44:T46,Collated_Data!T50:T52)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="9">
+        <f>AVERAGE(Collated_Data!U44:U46,Collated_Data!U50:U52)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="9">
+        <f>AVERAGE(Collated_Data!V44:V46,Collated_Data!V50:V52)</f>
+        <v>0.39988231951871661</v>
+      </c>
+      <c r="W16" s="9">
+        <f>AVERAGE(Collated_Data!W44:W46,Collated_Data!W50:W52)</f>
+        <v>0.6009466469677337</v>
+      </c>
+      <c r="X16" s="9">
+        <f>AVERAGE(Collated_Data!X44:X46,Collated_Data!X50:X52)</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <f>AVERAGE(Collated_Data!Y44:Y46,Collated_Data!Y50:Y52)</f>
+        <v>1.709495849212771</v>
+      </c>
+      <c r="Z16" s="9">
+        <f>AVERAGE(Collated_Data!Z44:Z46,Collated_Data!Z50:Z52)</f>
+        <v>22.818552282734469</v>
+      </c>
+      <c r="AA16" s="9">
+        <f>AVERAGE(Collated_Data!AA44:AA46,Collated_Data!AA50:AA52)</f>
+        <v>2.1034038639007098</v>
+      </c>
+      <c r="AB16" s="9">
+        <f>AVERAGE(Collated_Data!AB44:AB46,Collated_Data!AB50:AB52)</f>
+        <v>22.904373570750824</v>
+      </c>
+      <c r="AC16" s="9">
+        <f>AVERAGE(Collated_Data!AC44:AC46,Collated_Data!AC50:AC52)</f>
+        <v>0.12410739220327811</v>
+      </c>
+      <c r="AD16" s="9">
+        <f>AVERAGE(Collated_Data!AD44:AD46,Collated_Data!AD50:AD52)</f>
+        <v>0.68553493044038494</v>
+      </c>
+      <c r="AE16" s="10">
+        <f>AVERAGE(Collated_Data!AE44:AE46,Collated_Data!AE50:AE52)</f>
+        <v>24.876666666666665</v>
+      </c>
+      <c r="AF16" s="10">
+        <f>AVERAGE(Collated_Data!AF44:AF46,Collated_Data!AF50:AF52)</f>
+        <v>39.891666666666673</v>
+      </c>
+      <c r="AG16" s="10">
+        <f>AVERAGE(Collated_Data!AG44:AG46,Collated_Data!AG50:AG52)</f>
+        <v>20.631666666666668</v>
+      </c>
+      <c r="AH16" s="10">
+        <f>AVERAGE(Collated_Data!AH44:AH46,Collated_Data!AH50:AH52)</f>
+        <v>6688.9949999999999</v>
+      </c>
+      <c r="AI16" s="10">
+        <f>AVERAGE(Collated_Data!AI44:AI46,Collated_Data!AI50:AI52)</f>
+        <v>296.16666666666669</v>
+      </c>
+      <c r="AJ16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ44:AJ46,Collated_Data!AJ50:AJ52)</f>
+        <v>3.9960789469627431</v>
+      </c>
+      <c r="AK16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK44:AK46,Collated_Data!AK50:AK52)</f>
+        <v>0.46695843335718396</v>
+      </c>
+      <c r="AL16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL44:AL46,Collated_Data!AL50:AL52)</f>
+        <v>0.33104680859238284</v>
+      </c>
+      <c r="AM16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM44:AM46,Collated_Data!AM50:AM52)</f>
+        <v>0.31953411374902979</v>
+      </c>
+      <c r="AN16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN44:AN46,Collated_Data!AN50:AN52)</f>
+        <v>0.47800110414688007</v>
+      </c>
+      <c r="AO16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO44:AO46,Collated_Data!AO50:AO52)</f>
+        <v>0.53167629918449888</v>
+      </c>
+      <c r="AP16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP44:AP46,Collated_Data!AP50:AP52)</f>
+        <v>0.6290630894663447</v>
+      </c>
+      <c r="AQ16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ44:AQ46,Collated_Data!AQ50:AQ52)</f>
+        <v>0.63233624208189154</v>
+      </c>
+      <c r="AR16" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR44:AR46,Collated_Data!AR50:AR52)</f>
+        <v>0.60746285638453112</v>
+      </c>
+      <c r="AS16" s="7">
+        <f>AVERAGE(Collated_Data!AS44:AS46,Collated_Data!AS50:AS52)</f>
+        <v>9.9133333333333322</v>
+      </c>
+      <c r="AT16" s="7">
+        <f>AVERAGE(Collated_Data!AT44:AT46,Collated_Data!AT50:AT52)</f>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="7">
+        <f>AVERAGE(Collated_Data!AU44:AU46,Collated_Data!AU50:AU52)</f>
+        <v>0</v>
+      </c>
+      <c r="AV16" s="10">
+        <f>AVERAGE(Collated_Data!AV44:AV46,Collated_Data!AV50:AV52)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AW16" s="10">
+        <f>AVERAGE(Collated_Data!AW44:AW46,Collated_Data!AW50:AW52)</f>
+        <v>4</v>
+      </c>
+      <c r="AX16" s="18">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AY16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="18">
+        <v>155.56</v>
+      </c>
+      <c r="BA16" s="18">
+        <v>3.92</v>
+      </c>
+      <c r="BB16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="18">
+        <v>1.83</v>
+      </c>
+      <c r="BG16" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A17" s="6">
+        <v>44822</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="10">
+        <f>AVERAGE(Collated_Data!D47:D49,Collated_Data!D53:D55)</f>
+        <v>270</v>
+      </c>
+      <c r="E17" s="10">
+        <f>AVERAGE(Collated_Data!E47:E49,Collated_Data!E53:E55)</f>
+        <v>1624.6666666666667</v>
+      </c>
+      <c r="F17" s="10">
+        <f>AVERAGE(Collated_Data!F47:F49,Collated_Data!F53:F55)</f>
+        <v>7.1845060093515665</v>
+      </c>
+      <c r="G17" s="9">
+        <f>AVERAGE(Collated_Data!G47:G49,Collated_Data!G53:G55)</f>
+        <v>0.13301122803801496</v>
+      </c>
+      <c r="H17" s="9">
+        <f>AVERAGE(Collated_Data!H47:H49,Collated_Data!H53:H55)</f>
+        <v>86191.666666666672</v>
+      </c>
+      <c r="I17" s="9">
+        <f>AVERAGE(Collated_Data!I47:I49,Collated_Data!I53:I55)</f>
+        <v>0.25973110300930774</v>
+      </c>
+      <c r="J17" s="9">
+        <f>AVERAGE(Collated_Data!J47:J49,Collated_Data!J53:J55)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <f>AVERAGE(Collated_Data!K47:K49,Collated_Data!K53:K55)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <f>AVERAGE(Collated_Data!L47:L49,Collated_Data!L53:L55)</f>
+        <v>1.1588433872037089</v>
+      </c>
+      <c r="M17" s="9">
+        <f>AVERAGE(Collated_Data!M47:M49,Collated_Data!M53:M55)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <f>AVERAGE(Collated_Data!N47:N49,Collated_Data!N53:N55)</f>
+        <v>0.19745789010844961</v>
+      </c>
+      <c r="O17" s="9">
+        <f>AVERAGE(Collated_Data!O47:O49,Collated_Data!O53:O55)</f>
+        <v>0.17706740215207528</v>
+      </c>
+      <c r="P17" s="9">
+        <f>AVERAGE(Collated_Data!P47:P49,Collated_Data!P53:P55)</f>
+        <v>0.30217650029733911</v>
+      </c>
+      <c r="Q17" s="9">
+        <f>AVERAGE(Collated_Data!Q47:Q49,Collated_Data!Q53:Q55)</f>
+        <v>8.1986588917917463E-2</v>
+      </c>
+      <c r="R17" s="9">
+        <f>AVERAGE(Collated_Data!R47:R49,Collated_Data!R53:R55)</f>
+        <v>0.49673982114676479</v>
+      </c>
+      <c r="S17" s="9">
+        <f>AVERAGE(Collated_Data!S47:S49,Collated_Data!S53:S55)</f>
+        <v>0.54435399822439701</v>
+      </c>
+      <c r="T17" s="9">
+        <f>AVERAGE(Collated_Data!T47:T49,Collated_Data!T53:T55)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="9">
+        <f>AVERAGE(Collated_Data!U47:U49,Collated_Data!U53:U55)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="9">
+        <f>AVERAGE(Collated_Data!V47:V49,Collated_Data!V53:V55)</f>
+        <v>0.39680887366310164</v>
+      </c>
+      <c r="W17" s="9">
+        <f>AVERAGE(Collated_Data!W47:W49,Collated_Data!W53:W55)</f>
+        <v>0.45340238362355034</v>
+      </c>
+      <c r="X17" s="9">
+        <f>AVERAGE(Collated_Data!X47:X49,Collated_Data!X53:X55)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <f>AVERAGE(Collated_Data!Y47:Y49,Collated_Data!Y53:Y55)</f>
+        <v>1.1852721143690126</v>
+      </c>
+      <c r="Z17" s="9">
+        <f>AVERAGE(Collated_Data!Z47:Z49,Collated_Data!Z53:Z55)</f>
+        <v>16.304201512762969</v>
+      </c>
+      <c r="AA17" s="9">
+        <f>AVERAGE(Collated_Data!AA47:AA49,Collated_Data!AA53:AA55)</f>
+        <v>1.4994165267901296</v>
+      </c>
+      <c r="AB17" s="9">
+        <f>AVERAGE(Collated_Data!AB47:AB49,Collated_Data!AB53:AB55)</f>
+        <v>16.437212740800984</v>
+      </c>
+      <c r="AC17" s="9">
+        <f>AVERAGE(Collated_Data!AC47:AC49,Collated_Data!AC53:AC55)</f>
+        <v>3.0455877505768138E-2</v>
+      </c>
+      <c r="AD17" s="9">
+        <f>AVERAGE(Collated_Data!AD47:AD49,Collated_Data!AD53:AD55)</f>
+        <v>0.34530761337739957</v>
+      </c>
+      <c r="AE17" s="10">
+        <f>AVERAGE(Collated_Data!AE47:AE49,Collated_Data!AE53:AE55)</f>
+        <v>1072.1633333333332</v>
+      </c>
+      <c r="AF17" s="10">
+        <f>AVERAGE(Collated_Data!AF47:AF49,Collated_Data!AF53:AF55)</f>
+        <v>367.50166666666672</v>
+      </c>
+      <c r="AG17" s="10">
+        <f>AVERAGE(Collated_Data!AG47:AG49,Collated_Data!AG53:AG55)</f>
+        <v>75.681666666666658</v>
+      </c>
+      <c r="AH17" s="10">
+        <f>AVERAGE(Collated_Data!AH47:AH49,Collated_Data!AH53:AH55)</f>
+        <v>4359.9566666666669</v>
+      </c>
+      <c r="AI17" s="10">
+        <f>AVERAGE(Collated_Data!AI47:AI49,Collated_Data!AI53:AI55)</f>
+        <v>1579.5</v>
+      </c>
+      <c r="AJ17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AJ47:AJ49,Collated_Data!AJ53:AJ55)</f>
+        <v>3.4853700813517574</v>
+      </c>
+      <c r="AK17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AK47:AK49,Collated_Data!AK53:AK55)</f>
+        <v>0.47267665259467379</v>
+      </c>
+      <c r="AL17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AL47:AL49,Collated_Data!AL53:AL55)</f>
+        <v>0.38331374002921631</v>
+      </c>
+      <c r="AM17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AM47:AM49,Collated_Data!AM53:AM55)</f>
+        <v>0.37276062541104121</v>
+      </c>
+      <c r="AN17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AN47:AN49,Collated_Data!AN53:AN55)</f>
+        <v>0.51249160529564242</v>
+      </c>
+      <c r="AO17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AO47:AO49,Collated_Data!AO53:AO55)</f>
+        <v>0.42131888508757287</v>
+      </c>
+      <c r="AP17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AP47:AP49,Collated_Data!AP53:AP55)</f>
+        <v>0.42384978055794026</v>
+      </c>
+      <c r="AQ17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AQ47:AQ49,Collated_Data!AQ53:AQ55)</f>
+        <v>0.41775726432649679</v>
+      </c>
+      <c r="AR17" s="10">
+        <f ca="1">AVERAGE(Collated_Data!AR47:AR49,Collated_Data!AR53:AR55)</f>
+        <v>0.48120152804917371</v>
+      </c>
+      <c r="AS17" s="7">
+        <f>AVERAGE(Collated_Data!AS47:AS49,Collated_Data!AS53:AS55)</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="7">
+        <f>AVERAGE(Collated_Data!AT47:AT49,Collated_Data!AT53:AT55)</f>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="7">
+        <f>AVERAGE(Collated_Data!AU47:AU49,Collated_Data!AU53:AU55)</f>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="10">
+        <f>AVERAGE(Collated_Data!AV47:AV49,Collated_Data!AV53:AV55)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AW17" s="10">
+        <f>AVERAGE(Collated_Data!AW47:AW49,Collated_Data!AW53:AW55)</f>
+        <v>4</v>
+      </c>
+      <c r="AX17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG17" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH17" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="AJ18" s="7"/>
+      <c r="AK18" s="7"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A19" s="6"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A20" s="6"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A21" s="6"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A22" s="6"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A23" s="6"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="7"/>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A24" s="6"/>
+      <c r="AJ24" s="7"/>
+      <c r="AK24" s="7"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
+      <c r="AP24" s="7"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="7"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="7"/>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A25" s="6"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A26" s="6"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="7"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AP26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="7"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A27" s="6"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A28" s="6"/>
+      <c r="AJ28" s="7"/>
+      <c r="AK28" s="7"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AP28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="7"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A29" s="6"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+    </row>
+    <row r="30" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A30" s="6"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A31" s="6"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+    </row>
+    <row r="32" spans="1:60" x14ac:dyDescent="0.4">
+      <c r="A32" s="6"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.4">
+      <c r="A33" s="6"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952799E6-37B5-4974-B1D9-99F806BF734B}">
   <dimension ref="A1:AW55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AS1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BA11" sqref="BA11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
@@ -1160,51 +5611,48 @@
       </c>
       <c r="AJ2" s="7">
         <f ca="1">SUM(AK2:AR2)</f>
-        <v>4.2652908387620041</v>
+        <v>5.7757062173734068</v>
       </c>
       <c r="AK2" s="7">
-        <f t="shared" ref="AK2:AT2" ca="1" si="0">RAND()</f>
-        <v>0.23650143331725426</v>
+        <f t="shared" ref="AK2:AR2" ca="1" si="0">RAND()</f>
+        <v>0.80004617808245782</v>
       </c>
       <c r="AL2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83181836031990652</v>
+        <v>0.49172144244731741</v>
       </c>
       <c r="AM2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72456319520742518</v>
+        <v>0.81052988646580271</v>
       </c>
       <c r="AN2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9180912895234972E-2</v>
+        <v>0.38350308121763343</v>
       </c>
       <c r="AO2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88464462456662607</v>
+        <v>0.40472756062770954</v>
       </c>
       <c r="AP2" s="7">
         <f ca="1">RAND()</f>
-        <v>0.13093984261626723</v>
+        <v>0.99270932514348087</v>
       </c>
       <c r="AQ2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4099953292248133</v>
+        <v>0.92604909087702825</v>
       </c>
       <c r="AR2" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98764714061447645</v>
+        <v>0.96641965251197581</v>
       </c>
       <c r="AS2" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7510799576500591E-2</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.76763327525363712</v>
+        <v>1.03</v>
       </c>
       <c r="AU2" s="7">
-        <f ca="1">RAND()</f>
-        <v>0.63334538406580076</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="5">
         <v>5</v>
@@ -1321,51 +5769,48 @@
       </c>
       <c r="AJ3" s="7">
         <f t="shared" ref="AJ3:AJ55" ca="1" si="1">SUM(AK3:AR3)</f>
-        <v>3.9070424467217046</v>
+        <v>5.1138386050207396</v>
       </c>
       <c r="AK3" s="7">
         <f t="shared" ref="AK3:AO43" ca="1" si="2">RAND()</f>
-        <v>0.67592532875311029</v>
+        <v>0.43200599856004529</v>
       </c>
       <c r="AL3" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12681817683434415</v>
+        <v>0.82376895554822438</v>
       </c>
       <c r="AM3" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37382654992526065</v>
+        <v>0.94529523170267427</v>
       </c>
       <c r="AN3" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56427953071052239</v>
+        <v>0.69500095530960326</v>
       </c>
       <c r="AO3" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43199199866209581</v>
+        <v>0.38744576480129267</v>
       </c>
       <c r="AP3" s="7">
-        <f t="shared" ref="AP3:AT53" ca="1" si="3">RAND()</f>
-        <v>0.8357815405374075</v>
+        <f t="shared" ref="AP3:AR53" ca="1" si="3">RAND()</f>
+        <v>0.56288405423966581</v>
       </c>
       <c r="AQ3" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15790093825504314</v>
+        <v>0.60166855968298028</v>
       </c>
       <c r="AR3" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74051838304392048</v>
+        <v>0.66576908517625399</v>
       </c>
       <c r="AS3" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.59238300704368685</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.30149833747743893</v>
+        <v>0.84</v>
       </c>
       <c r="AU3" s="7">
-        <f t="shared" ref="AU3:AU55" ca="1" si="4">RAND()</f>
-        <v>0.66269147640431869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.4">
@@ -1476,51 +5921,48 @@
       </c>
       <c r="AJ4" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5099877024558928</v>
+        <v>3.9506531494172386</v>
       </c>
       <c r="AK4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65551315730679593</v>
+        <v>0.58101710599927081</v>
       </c>
       <c r="AL4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16710047226737679</v>
+        <v>7.4387587599409111E-2</v>
       </c>
       <c r="AM4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4914654452012388</v>
+        <v>0.21785538156952289</v>
       </c>
       <c r="AN4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5949868282062036E-2</v>
+        <v>0.9555547945550269</v>
       </c>
       <c r="AO4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4773623967834464E-2</v>
+        <v>0.30443292944184486</v>
       </c>
       <c r="AP4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1380630418730164E-2</v>
+        <v>0.96404106733130679</v>
       </c>
       <c r="AQ4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90582669924944648</v>
+        <v>0.19648741215852683</v>
       </c>
       <c r="AR4" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19797780576240787</v>
+        <v>0.65687687076233048</v>
       </c>
       <c r="AS4" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>5.708090038219038E-2</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.8331165433683569E-2</v>
+        <v>0.89</v>
       </c>
       <c r="AU4" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.15642852800743678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.4">
@@ -1631,51 +6073,48 @@
       </c>
       <c r="AJ5" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2169508721704494</v>
+        <v>4.28460000043696</v>
       </c>
       <c r="AK5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53261661462089172</v>
+        <v>9.6911563730347372E-2</v>
       </c>
       <c r="AL5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76678951469459089</v>
+        <v>0.11229829438716488</v>
       </c>
       <c r="AM5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31517720442105812</v>
+        <v>0.93588012246144403</v>
       </c>
       <c r="AN5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26230683832704971</v>
+        <v>0.68099196027197428</v>
       </c>
       <c r="AO5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46791015716768281</v>
+        <v>0.75367207365074684</v>
       </c>
       <c r="AP5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47265818394386694</v>
+        <v>0.70000302301439643</v>
       </c>
       <c r="AQ5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43708413330010087</v>
+        <v>0.46121508270915401</v>
       </c>
       <c r="AR5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96240822569520856</v>
+        <v>0.54362788021173203</v>
       </c>
       <c r="AS5" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25428909040378411</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.59976669222793833</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.37589668666469989</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="5">
         <v>5</v>
@@ -1792,51 +6231,48 @@
       </c>
       <c r="AJ6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4474371164220967</v>
+        <v>3.5172463839898898</v>
       </c>
       <c r="AK6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34180373433881994</v>
+        <v>0.68087760956260446</v>
       </c>
       <c r="AL6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89549565463996739</v>
+        <v>6.8645361729899212E-2</v>
       </c>
       <c r="AM6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7537234453144146E-2</v>
+        <v>0.79340227662703378</v>
       </c>
       <c r="AN6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35024219697000647</v>
+        <v>8.3696125288873491E-3</v>
       </c>
       <c r="AO6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44850719909701486</v>
+        <v>0.37515871868784811</v>
       </c>
       <c r="AP6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92059834484696768</v>
+        <v>0.55092010420576421</v>
       </c>
       <c r="AQ6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41640695698799712</v>
+        <v>0.75270626359586035</v>
       </c>
       <c r="AR6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6845795088179107E-2</v>
+        <v>0.28716643705199196</v>
       </c>
       <c r="AS6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27590290872060852</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.80481056658506001</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.85644670407956025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.4">
@@ -1947,51 +6383,48 @@
       </c>
       <c r="AJ7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8926957983285755</v>
+        <v>5.451399743118956</v>
       </c>
       <c r="AK7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43813956226511219</v>
+        <v>0.84700184269588696</v>
       </c>
       <c r="AL7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>8.8071151438894102E-2</v>
+        <v>0.86502635951588258</v>
       </c>
       <c r="AM7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56454418678261808</v>
+        <v>0.91941123015718762</v>
       </c>
       <c r="AN7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79769275347530655</v>
+        <v>0.67703278901963526</v>
       </c>
       <c r="AO7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62726623264675185</v>
+        <v>0.55252902784801261</v>
       </c>
       <c r="AP7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34886642692364456</v>
+        <v>0.9028285333482946</v>
       </c>
       <c r="AQ7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11024515056315654</v>
+        <v>1.5865048091989631E-2</v>
       </c>
       <c r="AR7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91787033423309183</v>
+        <v>0.67170491244206587</v>
       </c>
       <c r="AS7" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31944026875198006</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.91761440662026361</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.661255446872802E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.4">
@@ -2102,51 +6535,48 @@
       </c>
       <c r="AJ8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5904559339378865</v>
+        <v>3.5806003054245301</v>
       </c>
       <c r="AK8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46754686183310812</v>
+        <v>0.231549514941636</v>
       </c>
       <c r="AL8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7442660160064145E-3</v>
+        <v>0.14052103578607067</v>
       </c>
       <c r="AM8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72372756101065627</v>
+        <v>0.29018756586997896</v>
       </c>
       <c r="AN8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73483161818097686</v>
+        <v>0.5726294291341274</v>
       </c>
       <c r="AO8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61587573631426995</v>
+        <v>0.14138806926692482</v>
       </c>
       <c r="AP8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4925696853593835</v>
+        <v>0.77512131999499789</v>
       </c>
       <c r="AQ8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60911239762974256</v>
+        <v>0.55822687918705349</v>
       </c>
       <c r="AR8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94304780759374274</v>
+        <v>0.87097649124374099</v>
       </c>
       <c r="AS8" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.66692339099450637</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.57247801027693535</v>
+        <v>0.41</v>
       </c>
       <c r="AU8" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.65656889217922565</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="5">
         <v>7</v>
@@ -2263,51 +6693,48 @@
       </c>
       <c r="AJ9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0966679452574803</v>
+        <v>3.4546035549917908</v>
       </c>
       <c r="AK9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25187912525418299</v>
+        <v>0.35110186870452309</v>
       </c>
       <c r="AL9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27980904572047316</v>
+        <v>0.2885165803625378</v>
       </c>
       <c r="AM9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87181099054914746</v>
+        <v>0.90263596472247343</v>
       </c>
       <c r="AN9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28558795988511143</v>
+        <v>0.24470266668130536</v>
       </c>
       <c r="AO9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31079160274988327</v>
+        <v>0.40656127249312457</v>
       </c>
       <c r="AP9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85955996440328153</v>
+        <v>0.68965715170171416</v>
       </c>
       <c r="AQ9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87889956893741039</v>
+        <v>0.2309091615858273</v>
       </c>
       <c r="AR9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35832968775798957</v>
+        <v>0.34051888874028502</v>
       </c>
       <c r="AS9" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14449843096447124</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.6470691737273746</v>
+        <v>0.53</v>
       </c>
       <c r="AU9" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.53231991122071631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.4">
@@ -2418,51 +6845,48 @@
       </c>
       <c r="AJ10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4016653328485962</v>
+        <v>3.5687387381950373</v>
       </c>
       <c r="AK10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78482374863695381</v>
+        <v>0.61925638047253229</v>
       </c>
       <c r="AL10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54121924109327657</v>
+        <v>0.74820825868980889</v>
       </c>
       <c r="AM10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47156231723362885</v>
+        <v>0.623749923450858</v>
       </c>
       <c r="AN10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39548794064472559</v>
+        <v>0.3558245906085088</v>
       </c>
       <c r="AO10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57399034245638603</v>
+        <v>0.31944655914748232</v>
       </c>
       <c r="AP10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20277323814912884</v>
+        <v>0.37640065889512009</v>
       </c>
       <c r="AQ10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8753089908556384</v>
+        <v>0.40576003164638108</v>
       </c>
       <c r="AR10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55649951377885865</v>
+        <v>0.12009233528434549</v>
       </c>
       <c r="AS10" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.21375795470087677</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.7932240849941548E-2</v>
+        <v>0.36</v>
       </c>
       <c r="AU10" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.99201655162682667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.4">
@@ -2573,51 +6997,48 @@
       </c>
       <c r="AJ11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8579633990513775</v>
+        <v>4.7253704153679434</v>
       </c>
       <c r="AK11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5828541727954808</v>
+        <v>0.33351251873350896</v>
       </c>
       <c r="AL11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57719175747957963</v>
+        <v>0.84466245286730701</v>
       </c>
       <c r="AM11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53413222527749271</v>
+        <v>0.81864218395559241</v>
       </c>
       <c r="AN11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6310701884839327</v>
+        <v>0.79493987154463641</v>
       </c>
       <c r="AO11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72027289419157625</v>
+        <v>0.19930182044117373</v>
       </c>
       <c r="AP11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63747650456662253</v>
+        <v>0.16950898017653404</v>
       </c>
       <c r="AQ11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16656641906233549</v>
+        <v>0.5751936933215499</v>
       </c>
       <c r="AR11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3992371943570898E-3</v>
+        <v>0.98960889432764054</v>
       </c>
       <c r="AS11" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.77917361136014818</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.65148515965800258</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.88674818042153536</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="5">
         <v>7</v>
@@ -2734,51 +7155,48 @@
       </c>
       <c r="AJ12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8594871703571063</v>
+        <v>5.3447704273500545</v>
       </c>
       <c r="AK12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59838124096330036</v>
+        <v>0.91008498288831419</v>
       </c>
       <c r="AL12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30025904168027129</v>
+        <v>0.54094038963291635</v>
       </c>
       <c r="AM12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43744711731638608</v>
+        <v>0.67607419308623529</v>
       </c>
       <c r="AN12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3378661167701329</v>
+        <v>0.24502433859192352</v>
       </c>
       <c r="AO12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72784912139589319</v>
+        <v>0.74237392124074175</v>
       </c>
       <c r="AP12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17058672514445816</v>
+        <v>0.57830966111597548</v>
       </c>
       <c r="AQ12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18231299737871443</v>
+        <v>0.9853400150454058</v>
       </c>
       <c r="AR12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10478480970795045</v>
+        <v>0.66662292574854232</v>
       </c>
       <c r="AS12" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.54146244183453807</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.40320873591810358</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.93424312666073994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.4">
@@ -2889,51 +7307,48 @@
       </c>
       <c r="AJ13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8072005778371163</v>
+        <v>3.4180192662618256</v>
       </c>
       <c r="AK13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31556567327417451</v>
+        <v>0.37648034154582177</v>
       </c>
       <c r="AL13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51901383611752072</v>
+        <v>0.1411093545410409</v>
       </c>
       <c r="AM13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25694897308333908</v>
+        <v>1.4930424296604961E-2</v>
       </c>
       <c r="AN13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6823803113699547</v>
+        <v>0.53051099929067069</v>
       </c>
       <c r="AO13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70102025889234032</v>
+        <v>0.67228674967620239</v>
       </c>
       <c r="AP13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55355022200199888</v>
+        <v>0.47412736331648619</v>
       </c>
       <c r="AQ13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.8695789190471888E-2</v>
+        <v>0.99141061261653063</v>
       </c>
       <c r="AR13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75002551390731576</v>
+        <v>0.21716342097846841</v>
       </c>
       <c r="AS13" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.67512256707834584</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.57103915819649953</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.39534220828564071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.4">
@@ -3044,51 +7459,48 @@
       </c>
       <c r="AJ14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.3772050533268443</v>
+        <v>3.3351143537400145</v>
       </c>
       <c r="AK14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48802851370082689</v>
+        <v>0.88645371359138514</v>
       </c>
       <c r="AL14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25711097772067482</v>
+        <v>0.30884302846797973</v>
       </c>
       <c r="AM14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6973145547513856</v>
+        <v>0.89873289326307682</v>
       </c>
       <c r="AN14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3045610626855586</v>
+        <v>2.5162446924343107E-2</v>
       </c>
       <c r="AO14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4517260663990728E-2</v>
+        <v>0.11005998194345024</v>
       </c>
       <c r="AP14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2032486836063234E-2</v>
+        <v>0.31572778956137415</v>
       </c>
       <c r="AQ14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11020601349328962</v>
+        <v>0.22220724307700279</v>
       </c>
       <c r="AR14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4234341834750549</v>
+        <v>0.56792725691140189</v>
       </c>
       <c r="AS14" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.85136629927336394</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.51691472798128635</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.6649766457290831</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="5">
         <v>6</v>
@@ -3205,51 +7617,48 @@
       </c>
       <c r="AJ15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4125065924460962</v>
+        <v>3.6765033273175507</v>
       </c>
       <c r="AK15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64740567342755484</v>
+        <v>0.21856570638602024</v>
       </c>
       <c r="AL15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85960731995252337</v>
+        <v>0.26833649357408762</v>
       </c>
       <c r="AM15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64726101962794091</v>
+        <v>0.85068593644646062</v>
       </c>
       <c r="AN15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24932857065175462</v>
+        <v>0.19159121657940903</v>
       </c>
       <c r="AO15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42824651788834478</v>
+        <v>0.57651147401030711</v>
       </c>
       <c r="AP15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95891948266248306</v>
+        <v>0.3558373223106559</v>
       </c>
       <c r="AQ15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48104722374883091</v>
+        <v>0.98439692209169583</v>
       </c>
       <c r="AR15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14069078448666317</v>
+        <v>0.23057825591891434</v>
       </c>
       <c r="AS15" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.38132762432387912</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.32380971658692048</v>
+        <v>1.37</v>
       </c>
       <c r="AU15" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.7477245223902198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.4">
@@ -3360,51 +7769,48 @@
       </c>
       <c r="AJ16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6585991668272211</v>
+        <v>4.4215035149157824</v>
       </c>
       <c r="AK16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40327807571035457</v>
+        <v>0.12308450581199815</v>
       </c>
       <c r="AL16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80218319950154915</v>
+        <v>0.68709321554305325</v>
       </c>
       <c r="AM16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36465636521262246</v>
+        <v>0.82101469063562338</v>
       </c>
       <c r="AN16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75485202475272251</v>
+        <v>0.66550735780857018</v>
       </c>
       <c r="AO16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55620645621270803</v>
+        <v>0.53365009850980238</v>
       </c>
       <c r="AP16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95047297423442934</v>
+        <v>0.88159415239926708</v>
       </c>
       <c r="AQ16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80551693519003542</v>
+        <v>0.10124032174002162</v>
       </c>
       <c r="AR16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1433136012798837E-2</v>
+        <v>0.60831917246744638</v>
       </c>
       <c r="AS16" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.0785923024672561E-2</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.17861362972254657</v>
+        <v>1.3</v>
       </c>
       <c r="AU16" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.84393903677518134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.4">
@@ -3515,51 +7921,48 @@
       </c>
       <c r="AJ17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.8650235201869645</v>
+        <v>3.5111159644044467</v>
       </c>
       <c r="AK17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22398487881046458</v>
+        <v>0.87717646786398262</v>
       </c>
       <c r="AL17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67802311376558067</v>
+        <v>0.1090075125339246</v>
       </c>
       <c r="AM17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15654654532051782</v>
+        <v>0.26161778174892014</v>
       </c>
       <c r="AN17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5804826421101201E-2</v>
+        <v>0.61895967074899017</v>
       </c>
       <c r="AO17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23129131327880992</v>
+        <v>0.19580901786570248</v>
       </c>
       <c r="AP17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47892484793731804</v>
+        <v>0.66017249679578294</v>
       </c>
       <c r="AQ17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84201861597208028</v>
+        <v>0.3408843943556511</v>
       </c>
       <c r="AR17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17842937868109165</v>
+        <v>0.44748862249149246</v>
       </c>
       <c r="AS17" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.75258025599866296</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.77804829803779618</v>
+        <v>0.86</v>
       </c>
       <c r="AU17" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.78762089226561371</v>
+        <v>0</v>
       </c>
       <c r="AV17" s="5">
         <v>6</v>
@@ -3676,51 +8079,48 @@
       </c>
       <c r="AJ18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.302580616032659</v>
+        <v>5.0322393740839839</v>
       </c>
       <c r="AK18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1410561728417512</v>
+        <v>0.68546933288021172</v>
       </c>
       <c r="AL18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76089592543796181</v>
+        <v>0.36644002455403069</v>
       </c>
       <c r="AM18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>8.855636485934637E-2</v>
+        <v>0.88477727192597377</v>
       </c>
       <c r="AN18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32008060650861003</v>
+        <v>0.6322298738693426</v>
       </c>
       <c r="AO18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38522761650766302</v>
+        <v>0.54993485847898371</v>
       </c>
       <c r="AP18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7691402838998114E-2</v>
+        <v>0.89881254235720043</v>
       </c>
       <c r="AQ18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51893926931276257</v>
+        <v>0.13404678461191843</v>
       </c>
       <c r="AR18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0133257725565836E-2</v>
+        <v>0.88052868540632145</v>
       </c>
       <c r="AS18" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.5622987310921933</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.97508775135789949</v>
+        <v>1.03</v>
       </c>
       <c r="AU18" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.20696430934863541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.4">
@@ -3831,51 +8231,48 @@
       </c>
       <c r="AJ19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9522654469207064</v>
+        <v>4.783207919052181</v>
       </c>
       <c r="AK19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87254134598416733</v>
+        <v>3.1046880012919331E-2</v>
       </c>
       <c r="AL19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10101393072847908</v>
+        <v>0.59892370178970156</v>
       </c>
       <c r="AM19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11463959756012676</v>
+        <v>0.92301058757234844</v>
       </c>
       <c r="AN19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46680763390650037</v>
+        <v>0.89343463409440715</v>
       </c>
       <c r="AO19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60252030172204862</v>
+        <v>0.67105606018885466</v>
       </c>
       <c r="AP19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79987704739605736</v>
+        <v>0.26643666790353493</v>
       </c>
       <c r="AQ19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90287134071059583</v>
+        <v>0.84939569628429379</v>
       </c>
       <c r="AR19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1994248912731225E-2</v>
+        <v>0.54990369120612126</v>
       </c>
       <c r="AS19" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.43511612590619753</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.52864348311689224</v>
+        <v>0.95</v>
       </c>
       <c r="AU19" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.6423391204610035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.4">
@@ -3986,51 +8383,48 @@
       </c>
       <c r="AJ20" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.172022880717333</v>
+        <v>3.844406710132517</v>
       </c>
       <c r="AK20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42535194304196278</v>
+        <v>0.35196181382588965</v>
       </c>
       <c r="AL20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10098843129824708</v>
+        <v>0.81649976019331227</v>
       </c>
       <c r="AM20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95281587156027114</v>
+        <v>0.47546266977866536</v>
       </c>
       <c r="AN20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72302075607665817</v>
+        <v>0.94641233697917804</v>
       </c>
       <c r="AO20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86575892932969567</v>
+        <v>0.23260053560076577</v>
       </c>
       <c r="AP20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99371383997497842</v>
+        <v>7.6979762809590402E-2</v>
       </c>
       <c r="AQ20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23911025952032161</v>
+        <v>0.19920550577147178</v>
       </c>
       <c r="AR20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87126284991519831</v>
+        <v>0.74528432517364374</v>
       </c>
       <c r="AS20" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.8474666181758842</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.75274711284464191</v>
+        <v>1.7</v>
       </c>
       <c r="AU20" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.35504770207294534</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="5">
         <v>8</v>
@@ -4147,51 +8541,48 @@
       </c>
       <c r="AJ21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0267841762963785</v>
+        <v>5.3949856622726458</v>
       </c>
       <c r="AK21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95931297309614239</v>
+        <v>0.28775793632679492</v>
       </c>
       <c r="AL21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95504724225338422</v>
+        <v>0.7939301485550031</v>
       </c>
       <c r="AM21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52293927733412338</v>
+        <v>0.98985288877554589</v>
       </c>
       <c r="AN21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42426260948372041</v>
+        <v>0.34530944093463689</v>
       </c>
       <c r="AO21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60077596108773357</v>
+        <v>0.75200885032758191</v>
       </c>
       <c r="AP21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40421503442357154</v>
+        <v>0.62640168312655486</v>
       </c>
       <c r="AQ21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13293236627567517</v>
+        <v>0.97040637857473333</v>
       </c>
       <c r="AR21" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7298712342028075E-2</v>
+        <v>0.62931833565179562</v>
       </c>
       <c r="AS21" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.45944222500885201</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.50720508239310647</v>
+        <v>1.73</v>
       </c>
       <c r="AU21" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.44460973620046962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.4">
@@ -4302,51 +8693,48 @@
       </c>
       <c r="AJ22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.068687911170854</v>
+        <v>5.7433896789611136</v>
       </c>
       <c r="AK22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49989327899408664</v>
+        <v>0.72856779896477164</v>
       </c>
       <c r="AL22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54544169764741501</v>
+        <v>0.79290131550337162</v>
       </c>
       <c r="AM22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99115218731439847</v>
+        <v>0.53286956447177181</v>
       </c>
       <c r="AN22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34092378638114995</v>
+        <v>0.80638063388849868</v>
       </c>
       <c r="AO22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1898823279393852</v>
+        <v>0.52696604057207641</v>
       </c>
       <c r="AP22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91733117327256408</v>
+        <v>0.61013090157800098</v>
       </c>
       <c r="AQ22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11554238421546337</v>
+        <v>0.82177107113456271</v>
       </c>
       <c r="AR22" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46852107540639099</v>
+        <v>0.92380235284806</v>
       </c>
       <c r="AS22" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27557767054232341</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31717112730732355</v>
+        <v>1.49</v>
       </c>
       <c r="AU22" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.3116087206056446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.4">
@@ -4457,51 +8845,48 @@
       </c>
       <c r="AJ23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8114223819782818</v>
+        <v>4.3744623655749937</v>
       </c>
       <c r="AK23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25530150314586375</v>
+        <v>0.46079745208892486</v>
       </c>
       <c r="AL23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67465146740098059</v>
+        <v>0.71726998246347051</v>
       </c>
       <c r="AM23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.0854255191067779E-2</v>
+        <v>0.27694671387676706</v>
       </c>
       <c r="AN23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8660492069539143</v>
+        <v>0.99772491694441612</v>
       </c>
       <c r="AO23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88908265777788897</v>
+        <v>0.40625608375942734</v>
       </c>
       <c r="AP23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62981102262300914</v>
+        <v>0.65307812556778788</v>
       </c>
       <c r="AQ23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38585093012418337</v>
+        <v>0.16031785470328619</v>
       </c>
       <c r="AR23" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9821338761373308E-2</v>
+        <v>0.70207123617091294</v>
       </c>
       <c r="AS23" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.40202931935351904</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16376206636472668</v>
+        <v>1.78</v>
       </c>
       <c r="AU23" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.96689716695547789</v>
+        <v>0</v>
       </c>
       <c r="AV23" s="5">
         <v>8</v>
@@ -4618,51 +9003,48 @@
       </c>
       <c r="AJ24" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8940653251441057</v>
+        <v>5.2606792122621009</v>
       </c>
       <c r="AK24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82106903432468903</v>
+        <v>0.8302099051608377</v>
       </c>
       <c r="AL24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62224635903590197</v>
+        <v>0.74429091435709771</v>
       </c>
       <c r="AM24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89963141841170646</v>
+        <v>0.92074587584106482</v>
       </c>
       <c r="AN24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35353749654070854</v>
+        <v>0.69979180604337587</v>
       </c>
       <c r="AO24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.1285267947047797E-2</v>
+        <v>0.97215310911013808</v>
       </c>
       <c r="AP24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27111172427569519</v>
+        <v>0.65790864377510994</v>
       </c>
       <c r="AQ24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.99535616501419E-2</v>
+        <v>0.4210822985049546</v>
       </c>
       <c r="AR24" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78523046295821464</v>
+        <v>1.4496659469522721E-2</v>
       </c>
       <c r="AS24" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.88510327227793295</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.94096794681884166</v>
+        <v>1.31</v>
       </c>
       <c r="AU24" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.967012826072692E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.4">
@@ -4773,51 +9155,48 @@
       </c>
       <c r="AJ25" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.570722742757793</v>
+        <v>4.1398783055590442</v>
       </c>
       <c r="AK25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60166900511279175</v>
+        <v>0.82553584307616723</v>
       </c>
       <c r="AL25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.589831370395415</v>
+        <v>5.2800749490121479E-2</v>
       </c>
       <c r="AM25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70512715584073404</v>
+        <v>0.54332100875093003</v>
       </c>
       <c r="AN25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87099836842006284</v>
+        <v>0.25859023882524002</v>
       </c>
       <c r="AO25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86876813841286005</v>
+        <v>0.59619900415827753</v>
       </c>
       <c r="AP25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75936992126688152</v>
+        <v>0.89392531322136037</v>
       </c>
       <c r="AQ25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25087298206333852</v>
+        <v>0.23938439601692496</v>
       </c>
       <c r="AR25" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92408580124570905</v>
+        <v>0.73012175202002261</v>
       </c>
       <c r="AS25" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.84600698056806534</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.98369867177767789</v>
+        <v>1.6</v>
       </c>
       <c r="AU25" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.59170323451116291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.4">
@@ -4928,51 +9307,48 @@
       </c>
       <c r="AJ26" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.975778708636343</v>
+        <v>4.641583165171081</v>
       </c>
       <c r="AK26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13485829315552567</v>
+        <v>0.34860081215112848</v>
       </c>
       <c r="AL26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5063446776635807E-2</v>
+        <v>0.89973087609818059</v>
       </c>
       <c r="AM26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55641256166436071</v>
+        <v>7.931848797151253E-2</v>
       </c>
       <c r="AN26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25795653328110624</v>
+        <v>0.93011434486507483</v>
       </c>
       <c r="AO26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53421884270168618</v>
+        <v>0.97749983676820551</v>
       </c>
       <c r="AP26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66007643813722383</v>
+        <v>0.51816934548095162</v>
       </c>
       <c r="AQ26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83102813151334487</v>
+        <v>0.27816715147472593</v>
       </c>
       <c r="AR26" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90616446140645923</v>
+        <v>0.60998231036130146</v>
       </c>
       <c r="AS26" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13038279639923644</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.30703231501667005</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.7630963218476641E-2</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="5">
         <v>13</v>
@@ -5089,51 +9465,48 @@
       </c>
       <c r="AJ27" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4097472938691276</v>
+        <v>4.5180677758934191</v>
       </c>
       <c r="AK27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99302281726690633</v>
+        <v>0.2883290021971785</v>
       </c>
       <c r="AL27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17107636044501584</v>
+        <v>0.3098973810908815</v>
       </c>
       <c r="AM27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96944314995924286</v>
+        <v>0.86322856313861362</v>
       </c>
       <c r="AN27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70774694398278293</v>
+        <v>0.97890586247820899</v>
       </c>
       <c r="AO27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9198231894136719E-2</v>
+        <v>0.49746212112636279</v>
       </c>
       <c r="AP27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18110439435401138</v>
+        <v>0.19516681758874288</v>
       </c>
       <c r="AQ27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.2067632702879525E-2</v>
+        <v>0.4768754459147494</v>
       </c>
       <c r="AR27" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29608776326415187</v>
+        <v>0.90820258235868134</v>
       </c>
       <c r="AS27" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.88605653600573442</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14387137312523768</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.46904094344889891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.4">
@@ -5244,51 +9617,48 @@
       </c>
       <c r="AJ28" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0719011549305599</v>
+        <v>3.0748045463273468</v>
       </c>
       <c r="AK28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41477302202527833</v>
+        <v>0.12767947223441645</v>
       </c>
       <c r="AL28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42413785695400918</v>
+        <v>0.39985211338110871</v>
       </c>
       <c r="AM28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24173973431687545</v>
+        <v>2.1738011282187553E-2</v>
       </c>
       <c r="AN28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55276883692697365</v>
+        <v>0.39264056535299086</v>
       </c>
       <c r="AO28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4257962892774181E-3</v>
+        <v>0.20960241774756971</v>
       </c>
       <c r="AP28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41712309145821536</v>
+        <v>0.52152646613632414</v>
       </c>
       <c r="AQ28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.919008031904573E-2</v>
+        <v>0.85897470736913883</v>
       </c>
       <c r="AR28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93674273664088503</v>
+        <v>0.54279079282361054</v>
       </c>
       <c r="AS28" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.3958217961339936</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.36384558527106503</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.78270186297809985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.4">
@@ -5399,51 +9769,48 @@
       </c>
       <c r="AJ29" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.6239272863377678</v>
+        <v>3.0296083910669829</v>
       </c>
       <c r="AK29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27278202768319226</v>
+        <v>0.59089387924386871</v>
       </c>
       <c r="AL29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75581494886535205</v>
+        <v>0.47610652895087568</v>
       </c>
       <c r="AM29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7242644783955744</v>
+        <v>0.43079677445324738</v>
       </c>
       <c r="AN29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40786428854957901</v>
+        <v>0.16567348608314847</v>
       </c>
       <c r="AO29" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30150387458526329</v>
+        <v>0.15518166864955596</v>
       </c>
       <c r="AP29" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93171166526838312</v>
+        <v>0.10328340312965234</v>
       </c>
       <c r="AQ29" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58237455659982384</v>
+        <v>0.62815095991547898</v>
       </c>
       <c r="AR29" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64761144639060009</v>
+        <v>0.47952169064115546</v>
       </c>
       <c r="AS29" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.36971183718296863</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.28287989355349363</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.34876324819478777</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="5">
         <v>13</v>
@@ -5560,51 +9927,48 @@
       </c>
       <c r="AJ30" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.9245752475017204</v>
+        <v>5.0491945954828239</v>
       </c>
       <c r="AK30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14515605286391919</v>
+        <v>0.95873724648183378</v>
       </c>
       <c r="AL30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20643331376387952</v>
+        <v>0.30824109117250609</v>
       </c>
       <c r="AM30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90014007445049971</v>
+        <v>0.61943713662977395</v>
       </c>
       <c r="AN30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97187879633728236</v>
+        <v>0.77703703824053105</v>
       </c>
       <c r="AO30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95076029639736748</v>
+        <v>0.8810045615387484</v>
       </c>
       <c r="AP30" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40045102044887604</v>
+        <v>0.56329985634328605</v>
       </c>
       <c r="AQ30" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44996841853816416</v>
+        <v>0.56823200968864984</v>
       </c>
       <c r="AR30" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89978727470173125</v>
+        <v>0.37320565538749451</v>
       </c>
       <c r="AS30" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.74944836682269733</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.44900321994090342</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.45400588608063708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:49" x14ac:dyDescent="0.4">
@@ -5715,51 +10079,48 @@
       </c>
       <c r="AJ31" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1381907274980305</v>
+        <v>5.2821322984318151</v>
       </c>
       <c r="AK31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35647082493697235</v>
+        <v>0.99284687667377958</v>
       </c>
       <c r="AL31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80346555083972737</v>
+        <v>0.92959507997015389</v>
       </c>
       <c r="AM31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78502216612718034</v>
+        <v>0.68718570249644262</v>
       </c>
       <c r="AN31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79710884431145179</v>
+        <v>0.45183675881153396</v>
       </c>
       <c r="AO31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20632430766880161</v>
+        <v>2.5810065739354848E-2</v>
       </c>
       <c r="AP31" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6111770080962593E-2</v>
+        <v>0.84056366710696884</v>
       </c>
       <c r="AQ31" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3365429521553861</v>
+        <v>0.93241843070356889</v>
       </c>
       <c r="AR31" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77714431137754814</v>
+        <v>0.42187571693001269</v>
       </c>
       <c r="AS31" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.3070166892352002</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.38875139676961568</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.83404859329019632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.4">
@@ -5870,51 +10231,48 @@
       </c>
       <c r="AJ32" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8620925608776275</v>
+        <v>4.9795300534764415</v>
       </c>
       <c r="AK32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61015598096351664</v>
+        <v>0.77501221188567015</v>
       </c>
       <c r="AL32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37992053009718529</v>
+        <v>0.24472826477638931</v>
       </c>
       <c r="AM32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71783980255103874</v>
+        <v>0.72725603624031354</v>
       </c>
       <c r="AN32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45374782826083271</v>
+        <v>0.66901489115527135</v>
       </c>
       <c r="AO32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32556538906603005</v>
+        <v>0.50269515634878725</v>
       </c>
       <c r="AP32" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74354256753167491</v>
+        <v>0.81277995410789938</v>
       </c>
       <c r="AQ32" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8463581210638198</v>
+        <v>0.61212119123688724</v>
       </c>
       <c r="AR32" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78496234134352993</v>
+        <v>0.63592234772522405</v>
       </c>
       <c r="AS32" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.42863430570397887</v>
+        <v>0.37</v>
       </c>
       <c r="AT32" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.53530324273973828</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.43135277635704428</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="5">
         <v>7</v>
@@ -6031,51 +10389,48 @@
       </c>
       <c r="AJ33" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1188977136318865</v>
+        <v>4.1865317886036495</v>
       </c>
       <c r="AK33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55234149647629405</v>
+        <v>0.84944233846335171</v>
       </c>
       <c r="AL33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8988078851397725</v>
+        <v>1.078922880253852E-2</v>
       </c>
       <c r="AM33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>8.2130762938761648E-2</v>
+        <v>0.25927307129310195</v>
       </c>
       <c r="AN33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46876951741633277</v>
+        <v>0.10284678826851534</v>
       </c>
       <c r="AO33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6.5377042759162896E-2</v>
+        <v>0.84692902446126628</v>
       </c>
       <c r="AP33" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63087322467938423</v>
+        <v>0.32633335398275287</v>
       </c>
       <c r="AQ33" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26437540922759362</v>
+        <v>0.79504106307380207</v>
       </c>
       <c r="AR33" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15622237499458413</v>
+        <v>0.99587692025832097</v>
       </c>
       <c r="AS33" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.21677181300540371</v>
+        <v>0.31</v>
       </c>
       <c r="AT33" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.79463248752132509</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.26899252573647969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:49" x14ac:dyDescent="0.4">
@@ -6186,51 +10541,48 @@
       </c>
       <c r="AJ34" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7047516550216812</v>
+        <v>2.8542369722180707</v>
       </c>
       <c r="AK34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85315624267674883</v>
+        <v>0.22091097397832782</v>
       </c>
       <c r="AL34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67267739638082458</v>
+        <v>0.75130721995388028</v>
       </c>
       <c r="AM34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32198983302048045</v>
+        <v>0.24573482990599327</v>
       </c>
       <c r="AN34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6309126829020949</v>
+        <v>0.81615936143586953</v>
       </c>
       <c r="AO34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43497808080664024</v>
+        <v>0.46523038365996927</v>
       </c>
       <c r="AP34" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11470159206258002</v>
+        <v>6.6054706858856282E-2</v>
       </c>
       <c r="AQ34" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86368638642933693</v>
+        <v>8.7602756917061875E-2</v>
       </c>
       <c r="AR34" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8126494407429754</v>
+        <v>0.20123673950811283</v>
       </c>
       <c r="AS34" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.92271857818605196</v>
+        <v>0.26</v>
       </c>
       <c r="AT34" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.65908832206551493</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>8.1654942710659872E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:49" x14ac:dyDescent="0.4">
@@ -6341,51 +10693,48 @@
       </c>
       <c r="AJ35" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2392796986995682</v>
+        <v>4.0219955936926688</v>
       </c>
       <c r="AK35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87252629375445601</v>
+        <v>0.63828440667450403</v>
       </c>
       <c r="AL35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24464541368834469</v>
+        <v>0.5550791023103655</v>
       </c>
       <c r="AM35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64769340224730243</v>
+        <v>0.21679550383973434</v>
       </c>
       <c r="AN35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32208090491236907</v>
+        <v>0.38327426446792545</v>
       </c>
       <c r="AO35" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98711114991655158</v>
+        <v>0.65061133651259773</v>
       </c>
       <c r="AP35" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68266985449059281</v>
+        <v>0.35843461023886303</v>
       </c>
       <c r="AQ35" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59948333166216916</v>
+        <v>0.94312247110666214</v>
       </c>
       <c r="AR35" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88306934802778214</v>
+        <v>0.27639389854201668</v>
       </c>
       <c r="AS35" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.28698447689221851</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.21835356875993939</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.3539422184166758E-3</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="5">
         <v>7</v>
@@ -6502,51 +10851,48 @@
       </c>
       <c r="AJ36" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5511823380563179</v>
+        <v>4.3647757187011349</v>
       </c>
       <c r="AK36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0498893777586455E-2</v>
+        <v>0.36127717251793967</v>
       </c>
       <c r="AL36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62194490859163698</v>
+        <v>0.69600870744719134</v>
       </c>
       <c r="AM36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81308184865703503</v>
+        <v>0.20006578354827653</v>
       </c>
       <c r="AN36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76759292208864993</v>
+        <v>0.36134541697375844</v>
       </c>
       <c r="AO36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46819962428992079</v>
+        <v>0.25696933427235447</v>
       </c>
       <c r="AP36" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.90684677414852799</v>
+        <v>0.55435760617760432</v>
       </c>
       <c r="AQ36" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6990672030453586E-3</v>
+        <v>0.9868692343887272</v>
       </c>
       <c r="AR36" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88931829929991524</v>
+        <v>0.94788246337528259</v>
       </c>
       <c r="AS36" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.44478632730150569</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.87363916566230104</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.88515429671054902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:49" x14ac:dyDescent="0.4">
@@ -6657,51 +11003,48 @@
       </c>
       <c r="AJ37" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0594155147030788</v>
+        <v>3.7075850125113075</v>
       </c>
       <c r="AK37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10828376764939784</v>
+        <v>0.91702877095516355</v>
       </c>
       <c r="AL37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5245567690504074E-2</v>
+        <v>0.60858531345986666</v>
       </c>
       <c r="AM37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79075885805435364</v>
+        <v>0.12694093529976003</v>
       </c>
       <c r="AN37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38634529042296639</v>
+        <v>0.59576282818972659</v>
       </c>
       <c r="AO37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87569283008824172</v>
+        <v>0.6070859187747133</v>
       </c>
       <c r="AP37" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28269279305191031</v>
+        <v>0.50420918300381323</v>
       </c>
       <c r="AQ37" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33244895040620537</v>
+        <v>1.7089655217554678E-2</v>
       </c>
       <c r="AR37" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18794745733950002</v>
+        <v>0.33088240761070919</v>
       </c>
       <c r="AS37" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1.6553220815787362E-2</v>
+        <v>0</v>
       </c>
       <c r="AT37" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.480714243051223E-2</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.31115581897968558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:49" x14ac:dyDescent="0.4">
@@ -6812,51 +11155,48 @@
       </c>
       <c r="AJ38" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7235647698374468</v>
+        <v>3.9606453108784345</v>
       </c>
       <c r="AK38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75343226766589233</v>
+        <v>0.56177333208741742</v>
       </c>
       <c r="AL38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13243463909137698</v>
+        <v>0.37600396591785668</v>
       </c>
       <c r="AM38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82610304045587712</v>
+        <v>0.64365504144251207</v>
       </c>
       <c r="AN38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57497355793614791</v>
+        <v>0.4261473832123529</v>
       </c>
       <c r="AO38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31097770986515516</v>
+        <v>0.21983551375608779</v>
       </c>
       <c r="AP38" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92680202422732194</v>
+        <v>0.89205123006551834</v>
       </c>
       <c r="AQ38" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59382628743837718</v>
+        <v>0.81368335959153248</v>
       </c>
       <c r="AR38" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60501524315729871</v>
+        <v>2.7495484805157178E-2</v>
       </c>
       <c r="AS38" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.37473436099913859</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AT38" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.80128393155999367</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.37989487290196289</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="5">
         <v>6</v>
@@ -6973,51 +11313,48 @@
       </c>
       <c r="AJ39" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9075728831306349</v>
+        <v>3.2668292024863033</v>
       </c>
       <c r="AK39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47388769118100105</v>
+        <v>0.88373300506139207</v>
       </c>
       <c r="AL39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47399842590744878</v>
+        <v>0.11357745958387511</v>
       </c>
       <c r="AM39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98368302645439198</v>
+        <v>0.54610973364016291</v>
       </c>
       <c r="AN39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54540180845195785</v>
+        <v>0.813838899701952</v>
       </c>
       <c r="AO39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4564574429246816</v>
+        <v>0.56021199176928604</v>
       </c>
       <c r="AP39" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.6994358618512857E-2</v>
+        <v>0.14730706317630016</v>
       </c>
       <c r="AQ39" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.10159755113720648</v>
+        <v>0.10328135908274727</v>
       </c>
       <c r="AR39" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83555257845543462</v>
+        <v>9.876969047058759E-2</v>
       </c>
       <c r="AS39" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.30427332399161344</v>
+        <v>0.51</v>
       </c>
       <c r="AT39" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.26706744817371131</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.6495111182955926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:49" x14ac:dyDescent="0.4">
@@ -7128,51 +11465,48 @@
       </c>
       <c r="AJ40" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0686679977359366</v>
+        <v>3.8243397454368431</v>
       </c>
       <c r="AK40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27270407732486912</v>
+        <v>0.43777368358405855</v>
       </c>
       <c r="AL40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45434687777159877</v>
+        <v>0.4363849780710678</v>
       </c>
       <c r="AM40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34739650473266792</v>
+        <v>0.32293731094582512</v>
       </c>
       <c r="AN40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33178506715587408</v>
+        <v>0.53760551041790572</v>
       </c>
       <c r="AO40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87967359494641162</v>
+        <v>0.54414764501528123</v>
       </c>
       <c r="AP40" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50412871880907117</v>
+        <v>0.65475135749109237</v>
       </c>
       <c r="AQ40" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23193518094450727</v>
+        <v>0.80680925107115375</v>
       </c>
       <c r="AR40" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.6697976050936396E-2</v>
+        <v>8.393000884045887E-2</v>
       </c>
       <c r="AS40" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.29342077980127068</v>
+        <v>0.54</v>
       </c>
       <c r="AT40" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.24114491451471209</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.12090260393085994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:49" x14ac:dyDescent="0.4">
@@ -7283,51 +11617,48 @@
       </c>
       <c r="AJ41" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0169443136705967</v>
+        <v>5.3055891492819116</v>
       </c>
       <c r="AK41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49431790349434956</v>
+        <v>0.79348095630191329</v>
       </c>
       <c r="AL41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9206848024661789E-2</v>
+        <v>0.40705029020776851</v>
       </c>
       <c r="AM41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58165642291622088</v>
+        <v>0.77358723533573526</v>
       </c>
       <c r="AN41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29484458965498128</v>
+        <v>0.66065690491446005</v>
       </c>
       <c r="AO41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.7453010211096602E-2</v>
+        <v>0.44912268451911919</v>
       </c>
       <c r="AP41" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95088767318994039</v>
+        <v>0.94073153105759499</v>
       </c>
       <c r="AQ41" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51591496891450916</v>
+        <v>0.83917751673210428</v>
       </c>
       <c r="AR41" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2662897264837563E-2</v>
+        <v>0.44178203021321605</v>
       </c>
       <c r="AS41" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.50007449039085317</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.4807383136499831</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.37667018738210434</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="5">
         <v>6</v>
@@ -7444,51 +11775,48 @@
       </c>
       <c r="AJ42" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7585267787710994</v>
+        <v>4.4564561935656286</v>
       </c>
       <c r="AK42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63430612369636152</v>
+        <v>0.54472240675684969</v>
       </c>
       <c r="AL42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42823404690401612</v>
+        <v>0.15601978857605148</v>
       </c>
       <c r="AM42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11914714771501644</v>
+        <v>0.61243201796807123</v>
       </c>
       <c r="AN42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94927325877840196</v>
+        <v>0.95440302579923686</v>
       </c>
       <c r="AO42" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10308928756849656</v>
+        <v>0.71860900311548137</v>
       </c>
       <c r="AP42" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27443948069834645</v>
+        <v>0.65080042867052745</v>
       </c>
       <c r="AQ42" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19319591496390121</v>
+        <v>0.13197309257295375</v>
       </c>
       <c r="AR42" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6841518446559047E-2</v>
+        <v>0.68749643010645722</v>
       </c>
       <c r="AS42" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.23428236114148471</v>
+        <v>0</v>
       </c>
       <c r="AT42" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.63060179544990169</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.68199056623802368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:49" x14ac:dyDescent="0.4">
@@ -7599,51 +11927,48 @@
       </c>
       <c r="AJ43" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.3265972079252171</v>
+        <v>4.0990845672378926</v>
       </c>
       <c r="AK43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49062524228175242</v>
+        <v>0.62763577432706008</v>
       </c>
       <c r="AL43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81998382384130108</v>
+        <v>0.48354645759989223</v>
       </c>
       <c r="AM43" s="7">
-        <f t="shared" ref="AK43:AP55" ca="1" si="5">RAND()</f>
-        <v>5.9706429519953752E-2</v>
+        <f t="shared" ref="AK43:AP55" ca="1" si="4">RAND()</f>
+        <v>0.50117171138118244</v>
       </c>
       <c r="AN43" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.84549458217646012</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.8095482566870793</v>
       </c>
       <c r="AO43" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.67028137181353864</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.31440818834591111</v>
       </c>
       <c r="AP43" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45365373212367621</v>
+        <v>2.8599619484149685E-2</v>
       </c>
       <c r="AQ43" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74375227532483812</v>
+        <v>0.40662685050570713</v>
       </c>
       <c r="AR43" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24309975084369628</v>
+        <v>0.9275477089069103</v>
       </c>
       <c r="AS43" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.7143882714866563E-2</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.89654047045239704</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.34288742379521797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:49" x14ac:dyDescent="0.4">
@@ -7754,51 +12079,48 @@
       </c>
       <c r="AJ44" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7172363662381844</v>
+        <v>3.329662381602553</v>
       </c>
       <c r="AK44" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.35582072329529524</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.1640198629411288</v>
       </c>
       <c r="AL44" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.28653643017110009</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.0198836774435236E-2</v>
       </c>
       <c r="AM44" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.80851826853023767</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.90071379411379682</v>
       </c>
       <c r="AN44" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.71718421647841946</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.44142550975913908</v>
       </c>
       <c r="AO44" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.70456669521464821</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.28489251427199525</v>
       </c>
       <c r="AP44" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92828231502601066</v>
+        <v>0.26322768200861535</v>
       </c>
       <c r="AQ44" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25073960605105972</v>
+        <v>0.90351727891934608</v>
       </c>
       <c r="AR44" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66558811147141272</v>
+        <v>0.35166690281409596</v>
       </c>
       <c r="AS44" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.84936449479247944</v>
+        <v>19.47</v>
       </c>
       <c r="AT44" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.79496449961649285</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.9197035163183952</v>
+        <v>0</v>
       </c>
       <c r="AV44" s="5">
         <v>6</v>
@@ -7915,51 +12237,48 @@
       </c>
       <c r="AJ45" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8230058132499662</v>
+        <v>4.3913171324102844</v>
       </c>
       <c r="AK45" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.76360988454243395</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.48920159347797043</v>
       </c>
       <c r="AL45" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.2606167562305703E-3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8660313942301063E-2</v>
       </c>
       <c r="AM45" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.7020137251491112</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.2221610055391081E-2</v>
       </c>
       <c r="AN45" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.40323489243527055</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.9120266508508601</v>
       </c>
       <c r="AO45" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.10597003319560516</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.81562071304679451</v>
       </c>
       <c r="AP45" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73476241796108011</v>
+        <v>0.92519129071766393</v>
       </c>
       <c r="AQ45" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73015713987367636</v>
+        <v>0.32868001804352243</v>
       </c>
       <c r="AR45" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38199710333655801</v>
+        <v>0.80971494227578067</v>
       </c>
       <c r="AS45" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.71767235692993703</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="AT45" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.20383531818891354</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.21099948738884222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.4">
@@ -8070,51 +12389,48 @@
       </c>
       <c r="AJ46" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4028511324331951</v>
+        <v>4.2260802213860487</v>
       </c>
       <c r="AK46" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.35898515273218745</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.9588647945902703</v>
       </c>
       <c r="AL46" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.37169942671408407</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.3176958114269026E-2</v>
       </c>
       <c r="AM46" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.2869807927625061</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15642112250461415</v>
       </c>
       <c r="AN46" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.61575199657370316</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.87320930531392504</v>
       </c>
       <c r="AO46" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.73224070519260775</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.71954476287114222</v>
       </c>
       <c r="AP46" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91113361472245535</v>
+        <v>0.3871504425068113</v>
       </c>
       <c r="AQ46" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86826314405422667</v>
+        <v>0.6240279528856072</v>
       </c>
       <c r="AR46" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25779629968142403</v>
+        <v>0.46368488259940976</v>
       </c>
       <c r="AS46" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.8348962239392812</v>
+        <v>18.41</v>
       </c>
       <c r="AT46" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.25311764534497183</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.71045477120771461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.4">
@@ -8225,51 +12541,48 @@
       </c>
       <c r="AJ47" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9937138711127567</v>
+        <v>3.4276257990992418</v>
       </c>
       <c r="AK47" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.60283057332075318</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.90246042518393688</v>
       </c>
       <c r="AL47" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.90361249667842314</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.26130365779121967</v>
       </c>
       <c r="AM47" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.6222923079909477E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>6.542213335514091E-2</v>
       </c>
       <c r="AN47" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.2122717544468764</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2370407556269245</v>
       </c>
       <c r="AO47" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>3.1978857408826222E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.20814176590322842</v>
       </c>
       <c r="AP47" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2724310302862486</v>
+        <v>0.23345119890116683</v>
       </c>
       <c r="AQ47" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.73622811838224644</v>
+        <v>0.84608686881073469</v>
       </c>
       <c r="AR47" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2081381175094732</v>
+        <v>0.67371899352688991</v>
       </c>
       <c r="AS47" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31019224226818953</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.35927335640342184</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.67981172618300778</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="5">
         <v>6</v>
@@ -8386,51 +12699,48 @@
       </c>
       <c r="AJ48" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4941464228886705</v>
+        <v>3.9973579477673686</v>
       </c>
       <c r="AK48" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.70954536215450292</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.31255086422151501</v>
       </c>
       <c r="AL48" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.28244962240776528</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.9105751091012424</v>
       </c>
       <c r="AM48" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.21794385471951572</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.35296648927159135</v>
       </c>
       <c r="AN48" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.71910000423938958</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.49342699480659269</v>
       </c>
       <c r="AO48" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.33429622961336503</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.63891975500501796</v>
       </c>
       <c r="AP48" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>7.081593710207168E-2</v>
+        <v>0.96608425801163866</v>
       </c>
       <c r="AQ48" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40074126875639549</v>
+        <v>4.8625456576018578E-2</v>
       </c>
       <c r="AR48" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75925414389566515</v>
+        <v>0.27420902077375131</v>
       </c>
       <c r="AS48" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.75190542957359674</v>
+        <v>0</v>
       </c>
       <c r="AT48" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.11751455928286714</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.89947961943131016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:49" x14ac:dyDescent="0.4">
@@ -8541,51 +12851,48 @@
       </c>
       <c r="AJ49" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>2.179422851221732</v>
+        <v>4.0537862767607926</v>
       </c>
       <c r="AK49" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.65552544927991052</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19811409928968815</v>
       </c>
       <c r="AL49" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.3569249580567875E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.15605835531239598</v>
       </c>
       <c r="AM49" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.36510542136987179</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.88689733663749859</v>
       </c>
       <c r="AN49" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.21674226566676347</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.95823974751390828</v>
       </c>
       <c r="AO49" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.1201507530064394</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.32287032787711911</v>
       </c>
       <c r="AP49" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19387316220435602</v>
+        <v>0.39951642171852852</v>
       </c>
       <c r="AQ49" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2090499260831526E-2</v>
+        <v>0.58502474528781045</v>
       </c>
       <c r="AR49" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51236605085299158</v>
+        <v>0.54706524312384353</v>
       </c>
       <c r="AS49" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.68408371321236949</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.72441383902930145</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.84962156063613159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:49" x14ac:dyDescent="0.4">
@@ -8696,51 +13003,48 @@
       </c>
       <c r="AJ50" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3906315560346316</v>
+        <v>4.7081841644494018</v>
       </c>
       <c r="AK50" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.18163952697420915</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.83946702066513579</v>
       </c>
       <c r="AL50" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.2299802824952315</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.54835196337034098</v>
       </c>
       <c r="AM50" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.797645164045794</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.21857286007315979</v>
       </c>
       <c r="AN50" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.7468838488988085E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.22067821300509427</v>
       </c>
       <c r="AO50" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.94451212346905733</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.68931070921963356</v>
       </c>
       <c r="AP50" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26662961059890011</v>
+        <v>0.78632887268151441</v>
       </c>
       <c r="AQ50" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29014899808221362</v>
+        <v>0.48576054350306086</v>
       </c>
       <c r="AR50" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63260701188023727</v>
+        <v>0.91971398193146192</v>
       </c>
       <c r="AS50" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.82051664350739117</v>
+        <v>0.44</v>
       </c>
       <c r="AT50" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.55306484289099334</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>5.8099244548812767E-2</v>
+        <v>0</v>
       </c>
       <c r="AV50" s="5">
         <v>7</v>
@@ -8857,51 +13161,48 @@
       </c>
       <c r="AJ51" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0189017153052458</v>
+        <v>3.5791353037658569</v>
       </c>
       <c r="AK51" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.97473313867064615</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.23609191640348448</v>
       </c>
       <c r="AL51" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.74714548708253326</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.82291085199220981</v>
       </c>
       <c r="AM51" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>7.407121494635549E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16611786285712549</v>
       </c>
       <c r="AN51" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>4.5240937141024617E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.12369819978381968</v>
       </c>
       <c r="AO51" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.77708729551856237</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8791034690133905E-2</v>
       </c>
       <c r="AP51" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5441153432153585E-2</v>
+        <v>0.95459383914684548</v>
       </c>
       <c r="AQ51" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46215618189322027</v>
+        <v>0.70449099538121362</v>
       </c>
       <c r="AR51" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91302630662075035</v>
+        <v>0.52244060351102406</v>
       </c>
       <c r="AS51" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.67520573377463522</v>
+        <v>0.48</v>
       </c>
       <c r="AT51" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31566967333082463</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.34110709941289741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:49" x14ac:dyDescent="0.4">
@@ -9012,51 +13313,48 @@
       </c>
       <c r="AJ52" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8462836577976205</v>
+        <v>3.7420944781623136</v>
       </c>
       <c r="AK52" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.85489359213412275</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.11410541206511449</v>
       </c>
       <c r="AL52" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.16786661568780914</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.52298192736074078</v>
       </c>
       <c r="AM52" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.57785117849211343</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.39315743289009142</v>
       </c>
       <c r="AN52" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.90429779430451429</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.29696874616844182</v>
       </c>
       <c r="AO52" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.23078775910779104</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.63189806100729373</v>
       </c>
       <c r="AP52" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40934569722443193</v>
+        <v>0.45788640973661787</v>
       </c>
       <c r="AQ52" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99253277516828464</v>
+        <v>0.74754066375859896</v>
       </c>
       <c r="AR52" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70870824567855262</v>
+        <v>0.57755582517541459</v>
       </c>
       <c r="AS52" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.87563839005277622</v>
+        <v>0.42</v>
       </c>
       <c r="AT52" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.398762599215067E-2</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.34842307815490337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:49" x14ac:dyDescent="0.4">
@@ -9167,51 +13465,48 @@
       </c>
       <c r="AJ53" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7544592296214718</v>
+        <v>2.2954824920291541</v>
       </c>
       <c r="AK53" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.56430969029006439</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.26617551294774378</v>
       </c>
       <c r="AL53" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.81300760767562263</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.22354609537596104</v>
       </c>
       <c r="AM53" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.69484139443035697</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>9.8965059083671147E-2</v>
       </c>
       <c r="AN53" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.70320196565539961</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.36216059350326335</v>
       </c>
       <c r="AO53" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.89676967142606445</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.42341140182071235</v>
       </c>
       <c r="AP53" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66725179159327286</v>
+        <v>3.4742910880424693E-2</v>
       </c>
       <c r="AQ53" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59993449513002861</v>
+        <v>0.15952818261451152</v>
       </c>
       <c r="AR53" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81514261342066241</v>
+        <v>0.72695273580286579</v>
       </c>
       <c r="AS53" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.87624849750947043</v>
+        <v>0</v>
       </c>
       <c r="AT53" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.50719306784185314</v>
+        <v>0</v>
       </c>
       <c r="AU53" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.8078015541064838</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="5">
         <v>7</v>
@@ -9328,51 +13623,48 @@
       </c>
       <c r="AJ54" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5.1023756656894923</v>
+        <v>4.5935978508274893</v>
       </c>
       <c r="AK54" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.52357431820081901</v>
+      </c>
+      <c r="AL54" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.20386762571997086</v>
+      </c>
+      <c r="AM54" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.80939943632324685</v>
+      </c>
+      <c r="AN54" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2770363085722658</v>
+      </c>
+      <c r="AO54" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.74173418909847688</v>
+      </c>
+      <c r="AP54" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.7146710518930649</v>
+      </c>
+      <c r="AQ54" s="7">
+        <f t="shared" ref="AQ54:AR55" ca="1" si="5">RAND()</f>
+        <v>0.79898938982392886</v>
+      </c>
+      <c r="AR54" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22752524032011756</v>
-      </c>
-      <c r="AL54" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.7112360529128634</v>
-      </c>
-      <c r="AM54" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.91489791770542139</v>
-      </c>
-      <c r="AN54" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.80984454081388468</v>
-      </c>
-      <c r="AO54" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.62187623503982226</v>
-      </c>
-      <c r="AP54" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.41944840151012874</v>
-      </c>
-      <c r="AQ54" s="7">
-        <f t="shared" ref="AQ54:AT55" ca="1" si="6">RAND()</f>
-        <v>0.77546838995268186</v>
-      </c>
-      <c r="AR54" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.62207888743457185</v>
+        <v>0.52432553119571568</v>
       </c>
       <c r="AS54" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.33292749307614578</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.31694942312129859</v>
+        <v>0</v>
       </c>
       <c r="AU54" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.31607285979661148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:49" x14ac:dyDescent="0.4">
@@ -9483,51 +13775,48 @@
       </c>
       <c r="AJ55" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1530311430547941</v>
+        <v>2.5443701216264998</v>
       </c>
       <c r="AK55" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.63318469572433989</v>
+      </c>
+      <c r="AL55" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.54453159687450825</v>
+      </c>
+      <c r="AM55" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.2913297795098764E-2</v>
+      </c>
+      <c r="AN55" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.74704523175090043</v>
+      </c>
+      <c r="AO55" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19283587082088216</v>
+      </c>
+      <c r="AP55" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.19463284194281794</v>
+      </c>
+      <c r="AQ55" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47046540284616778</v>
-      </c>
-      <c r="AL55" s="7">
+        <v>6.8288942845976641E-2</v>
+      </c>
+      <c r="AR55" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78366330047590615</v>
-      </c>
-      <c r="AM55" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.50877632854490318</v>
-      </c>
-      <c r="AN55" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.12252360779967553</v>
-      </c>
-      <c r="AO55" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.38239960076719459</v>
-      </c>
-      <c r="AP55" s="7">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.69497985223706182</v>
-      </c>
-      <c r="AQ55" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.83610239374992934</v>
-      </c>
-      <c r="AR55" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.35412065663395575</v>
+        <v>0.1409376438719756</v>
       </c>
       <c r="AS55" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.72475512035401046</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="7">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.82679403789172046</v>
+        <v>0</v>
       </c>
       <c r="AU55" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.44821482772775179</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9536,12 +13825,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0741741-98B0-46F0-AD9C-0F21CA64B212}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9599,6 +13888,9 @@
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -9790,93 +14082,701 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922524E3-B962-48EB-A4D5-5D8830279D8E}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="15">
+        <v>14.04</v>
+      </c>
+      <c r="C2" s="16">
+        <v>0</v>
+      </c>
+      <c r="D2" s="15">
+        <v>8.32</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.13</v>
+      </c>
+      <c r="F2" s="16">
+        <v>0</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="16">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
+        <v>0</v>
+      </c>
+      <c r="K2" s="16">
+        <v>0</v>
+      </c>
+      <c r="L2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="15">
+        <v>267.72000000000003</v>
+      </c>
+      <c r="C3" s="15">
+        <v>59.14</v>
+      </c>
+      <c r="D3" s="15">
+        <v>395.52</v>
+      </c>
+      <c r="E3" s="15">
+        <v>14.79</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0</v>
+      </c>
+      <c r="I3" s="16">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="15">
+        <v>38.72</v>
+      </c>
+      <c r="C4" s="15">
+        <v>12.78</v>
+      </c>
+      <c r="D4" s="15">
+        <v>43.53</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="15">
+        <v>72.430000000000007</v>
+      </c>
+      <c r="C5" s="15">
+        <v>13.83</v>
+      </c>
+      <c r="D5" s="15">
+        <v>54.5</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="15">
+        <v>118.13</v>
+      </c>
+      <c r="C6" s="15">
+        <v>30.96</v>
+      </c>
+      <c r="D6" s="15">
+        <v>437.18</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.28</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="15">
+        <v>45.76</v>
+      </c>
+      <c r="C7" s="15">
+        <v>20.18</v>
+      </c>
+      <c r="D7" s="15">
+        <v>190.63</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="39.75" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="15">
+        <v>36.82</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>98.72</v>
+      </c>
+      <c r="E8" s="15">
+        <v>16.64</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="15">
+        <v>40.270000000000003</v>
+      </c>
+      <c r="C9" s="15">
+        <v>16.16</v>
+      </c>
+      <c r="D9" s="15">
+        <v>99.78</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="15">
+        <v>8.42</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="15">
+        <v>9.66</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4.78</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1.93</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="15">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>40.54</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1.01</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="15">
+        <v>17.34</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>329.08</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <v>27.92</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="26.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" s="15">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15">
+        <v>155.56</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3.92</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1.83</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>